--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -747,13 +747,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J2" t="n">
         <v>2.4</v>
@@ -789,16 +789,16 @@
         <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
@@ -819,7 +819,7 @@
         <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>67</v>
@@ -846,7 +846,7 @@
         <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO2" t="n">
         <v>9.5</v>
@@ -2585,16 +2585,16 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q12" t="n">
         <v>2.05</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -1129,10 +1129,10 @@
         <v>2.63</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -747,16 +747,16 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I2" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
@@ -768,7 +768,7 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -789,16 +789,16 @@
         <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W2" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
@@ -813,13 +813,13 @@
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF2" t="n">
         <v>67</v>
@@ -846,7 +846,7 @@
         <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO2" t="n">
         <v>9.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
       </c>
       <c r="L5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
@@ -1335,22 +1335,22 @@
         <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W5" t="n">
         <v>5</v>
       </c>
       <c r="X5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA5" t="n">
         <v>15</v>
@@ -1362,13 +1362,13 @@
         <v>7.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
@@ -1380,34 +1380,34 @@
         <v>29</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM5" t="n">
         <v>67</v>
       </c>
-      <c r="AL5" t="n">
-        <v>51</v>
-      </c>
-      <c r="AM5" t="n">
-        <v>51</v>
-      </c>
       <c r="AN5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT5" t="n">
         <v>2.5</v>
@@ -1422,7 +1422,7 @@
         <v>7.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
@@ -1839,40 +1839,40 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.2</v>
+        <v>3.45</v>
       </c>
       <c r="H8" t="n">
         <v>3.45</v>
       </c>
       <c r="I8" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="J8" t="n">
-        <v>3.65</v>
+        <v>3.9</v>
       </c>
       <c r="K8" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="L8" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="N8" t="n">
-        <v>8.1</v>
+        <v>1.06</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P8" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="R8" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S8" t="n">
         <v>1.38</v>
@@ -1884,25 +1884,25 @@
         <v>1.75</v>
       </c>
       <c r="V8" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>10.25</v>
       </c>
       <c r="X8" t="n">
-        <v>16.5</v>
+        <v>18</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="Z8" t="n">
+        <v>45</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>32</v>
+      </c>
+      <c r="AB8" t="n">
         <v>40</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>28</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>37</v>
       </c>
       <c r="AC8" t="n">
         <v>10</v>
@@ -1920,34 +1920,34 @@
         <v>600</v>
       </c>
       <c r="AH8" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AI8" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AK8" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AO8" t="n">
         <v>18.5</v>
       </c>
-      <c r="AL8" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM8" t="n">
-        <v>29</v>
-      </c>
-      <c r="AN8" t="n">
-        <v>5.1</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>17</v>
-      </c>
       <c r="AP8" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AQ8" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AR8" t="n">
         <v>120</v>
@@ -1956,31 +1956,31 @@
         <v>300</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AV8" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>35</v>
+      </c>
+      <c r="BA8" t="n">
         <v>65</v>
       </c>
-      <c r="AW8" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="AX8" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AY8" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>37</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>70</v>
-      </c>
       <c r="BB8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="J12" t="n">
         <v>2.75</v>
@@ -2585,10 +2585,10 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.33</v>
@@ -2597,10 +2597,10 @@
         <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>
@@ -2609,10 +2609,10 @@
         <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="V12" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="W12" t="n">
         <v>7.5</v>
@@ -2624,7 +2624,7 @@
         <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA12" t="n">
         <v>17</v>
@@ -2633,7 +2633,7 @@
         <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AD12" t="n">
         <v>6</v>
@@ -2648,7 +2648,7 @@
         <v>251</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI12" t="n">
         <v>19</v>
@@ -2660,7 +2660,7 @@
         <v>41</v>
       </c>
       <c r="AL12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM12" t="n">
         <v>41</v>
@@ -2672,7 +2672,7 @@
         <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ12" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
         <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
         <v>2.4</v>
@@ -1040,7 +1040,7 @@
         <v>34</v>
       </c>
       <c r="AR3" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS3" t="n">
         <v>201</v>
@@ -1064,7 +1064,7 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
@@ -1678,7 +1678,7 @@
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1687,10 +1687,10 @@
         <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R7" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S7" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -1311,10 +1311,10 @@
         <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -1293,40 +1293,40 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
         <v>2.2</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
         <v>7</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R5" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1335,10 +1335,10 @@
         <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W5" t="n">
         <v>5</v>
@@ -1350,10 +1350,10 @@
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="n">
         <v>41</v>
@@ -1362,7 +1362,7 @@
         <v>7.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
         <v>26</v>
@@ -1374,7 +1374,7 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
         <v>29</v>
@@ -1383,7 +1383,7 @@
         <v>21</v>
       </c>
       <c r="AK5" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL5" t="n">
         <v>51</v>
@@ -1395,13 +1395,13 @@
         <v>3.25</v>
       </c>
       <c r="AO5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -2227,16 +2227,16 @@
         <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P10" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R10" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2403,10 +2403,10 @@
         <v>2.6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
         <v>1.44</v>
@@ -2415,10 +2415,10 @@
         <v>2.63</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R11" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S11" t="n">
         <v>1.53</v>
@@ -2588,7 +2588,7 @@
         <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
         <v>1.33</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -2039,10 +2039,10 @@
         <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
         <v>1.36</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="J5" t="n">
         <v>2.2</v>
@@ -1335,10 +1335,10 @@
         <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W5" t="n">
         <v>5</v>
@@ -1350,7 +1350,7 @@
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA5" t="n">
         <v>17</v>
@@ -1362,7 +1362,7 @@
         <v>7.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>26</v>
@@ -1395,13 +1395,13 @@
         <v>3.25</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="J12" t="n">
         <v>2.75</v>
@@ -2582,7 +2582,7 @@
         <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2615,7 +2615,7 @@
         <v>1.83</v>
       </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X12" t="n">
         <v>9.5</v>
@@ -2624,7 +2624,7 @@
         <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA12" t="n">
         <v>17</v>
@@ -2645,10 +2645,10 @@
         <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AH12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI12" t="n">
         <v>19</v>
@@ -2660,7 +2660,7 @@
         <v>41</v>
       </c>
       <c r="AL12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM12" t="n">
         <v>41</v>
@@ -2705,7 +2705,7 @@
         <v>67</v>
       </c>
       <c r="BA12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB12" t="n">
         <v>201</v>
@@ -2770,7 +2770,7 @@
         <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
         <v>1.3</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -768,7 +768,7 @@
         <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.4</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>2.57</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.67</v>
+        <v>2.5</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="K14" t="n">
         <v>2.12</v>
       </c>
       <c r="L14" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
@@ -2967,10 +2967,10 @@
         <v>1.75</v>
       </c>
       <c r="S14" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="U14" t="n">
         <v>1.78</v>
@@ -2979,19 +2979,19 @@
         <v>1.93</v>
       </c>
       <c r="W14" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="X14" t="n">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z14" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AA14" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AB14" t="n">
         <v>32</v>
@@ -3000,10 +3000,10 @@
         <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF14" t="n">
         <v>70</v>
@@ -3012,67 +3012,67 @@
         <v>600</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI14" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AK14" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AL14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM14" t="n">
         <v>32</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.35</v>
+        <v>4.55</v>
       </c>
       <c r="AO14" t="n">
-        <v>12.5</v>
+        <v>14</v>
       </c>
       <c r="AP14" t="n">
+        <v>22</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>100</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>300</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AU14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>60</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AY14" t="n">
         <v>21</v>
       </c>
-      <c r="AQ14" t="n">
+      <c r="AZ14" t="n">
         <v>55</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="BA14" t="n">
         <v>90</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="BB14" t="n">
         <v>250</v>
-      </c>
-      <c r="AT14" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="AU14" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="AV14" t="n">
-        <v>65</v>
-      </c>
-      <c r="AW14" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="AX14" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AY14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>65</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>100</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>300</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>6</v>
+        <v>6.25</v>
       </c>
       <c r="H6" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="K6" t="n">
         <v>2.1</v>
       </c>
       <c r="L6" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1517,10 +1517,10 @@
         <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
         <v>13</v>
@@ -1529,7 +1529,7 @@
         <v>29</v>
       </c>
       <c r="Y6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="Z6" t="n">
         <v>67</v>
@@ -1544,28 +1544,28 @@
         <v>8</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="n">
         <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AJ6" t="n">
         <v>9</v>
       </c>
       <c r="AK6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL6" t="n">
         <v>15</v>
@@ -1574,16 +1574,16 @@
         <v>34</v>
       </c>
       <c r="AN6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP6" t="n">
         <v>41</v>
       </c>
       <c r="AQ6" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AR6" t="n">
         <v>151</v>
@@ -1595,22 +1595,22 @@
         <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AX6" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AY6" t="n">
         <v>23</v>
       </c>
       <c r="AZ6" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="BA6" t="n">
         <v>51</v>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H7" t="n">
         <v>3.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -1314,7 +1314,7 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1481,7 +1481,7 @@
         <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="J6" t="n">
         <v>6.5</v>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H7" t="n">
         <v>3.5</v>
@@ -1857,7 +1857,7 @@
         <v>2.5</v>
       </c>
       <c r="M8" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="N8" t="n">
         <v>1.06</v>
@@ -2931,37 +2931,37 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.57</v>
+        <v>2.77</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.5</v>
+        <v>2.32</v>
       </c>
       <c r="J14" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="K14" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>3.1</v>
+        <v>2.95</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P14" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R14" t="n">
         <v>1.75</v>
@@ -2979,31 +2979,31 @@
         <v>1.93</v>
       </c>
       <c r="W14" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.75</v>
+        <v>10.25</v>
       </c>
       <c r="Z14" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="AA14" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AB14" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AD14" t="n">
         <v>6.3</v>
       </c>
       <c r="AE14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF14" t="n">
         <v>70</v>
@@ -3012,34 +3012,34 @@
         <v>600</v>
       </c>
       <c r="AH14" t="n">
-        <v>8</v>
+        <v>7.6</v>
       </c>
       <c r="AI14" t="n">
-        <v>12.5</v>
+        <v>11.25</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AK14" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AL14" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM14" t="n">
         <v>32</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.55</v>
+        <v>4.75</v>
       </c>
       <c r="AO14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP14" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ14" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AR14" t="n">
         <v>100</v>
@@ -3051,22 +3051,22 @@
         <v>2.72</v>
       </c>
       <c r="AU14" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="AV14" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.45</v>
+        <v>4.3</v>
       </c>
       <c r="AX14" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AY14" t="n">
         <v>21</v>
       </c>
       <c r="AZ14" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="BA14" t="n">
         <v>90</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>6.25</v>
+        <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K5" t="n">
         <v>2.05</v>
       </c>
       <c r="L5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.44</v>
@@ -1335,10 +1335,10 @@
         <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="V5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W5" t="n">
         <v>5</v>
@@ -1350,7 +1350,7 @@
         <v>9</v>
       </c>
       <c r="Z5" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA5" t="n">
         <v>17</v>
@@ -1362,19 +1362,19 @@
         <v>7.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF5" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
         <v>29</v>
@@ -1395,13 +1395,13 @@
         <v>3.25</v>
       </c>
       <c r="AO5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -1839,40 +1839,40 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="I8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K8" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="N8" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P8" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q8" t="n">
         <v>1.95</v>
       </c>
-      <c r="J8" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L8" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="M8" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="N8" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P8" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1.91</v>
-      </c>
       <c r="R8" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S8" t="n">
         <v>1.38</v>
@@ -1887,31 +1887,31 @@
         <v>1.87</v>
       </c>
       <c r="W8" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="X8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Y8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AA8" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="AB8" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.7</v>
+        <v>6.4</v>
       </c>
       <c r="AE8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF8" t="n">
         <v>70</v>
@@ -1920,67 +1920,67 @@
         <v>600</v>
       </c>
       <c r="AH8" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AI8" t="n">
-        <v>9.25</v>
+        <v>10.25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK8" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AL8" t="n">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="AM8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.3</v>
+        <v>5</v>
       </c>
       <c r="AO8" t="n">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AR8" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AS8" t="n">
         <v>300</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="AU8" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AV8" t="n">
         <v>60</v>
       </c>
       <c r="AW8" t="n">
-        <v>3.85</v>
+        <v>4.05</v>
       </c>
       <c r="AX8" t="n">
-        <v>9.5</v>
+        <v>10.75</v>
       </c>
       <c r="AY8" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AZ8" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="BA8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BB8" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -2403,16 +2403,16 @@
         <v>2.6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
         <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P11" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q11" t="n">
         <v>2.4</v>
@@ -2585,13 +2585,13 @@
         <v>4.33</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
         <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
         <v>3.25</v>
@@ -2767,13 +2767,13 @@
         <v>2.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N13" t="n">
         <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P13" t="n">
         <v>3.4</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.32</v>
+        <v>2.42</v>
       </c>
       <c r="J14" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="K14" t="n">
         <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
@@ -2955,13 +2955,13 @@
         <v>6.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
         <v>1.75</v>
@@ -2979,16 +2979,16 @@
         <v>1.93</v>
       </c>
       <c r="W14" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="X14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="Y14" t="n">
         <v>10.25</v>
       </c>
       <c r="Z14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AA14" t="n">
         <v>24</v>
@@ -3012,34 +3012,34 @@
         <v>600</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.6</v>
+        <v>8</v>
       </c>
       <c r="AI14" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AL14" t="n">
         <v>20</v>
       </c>
       <c r="AM14" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="AO14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AP14" t="n">
         <v>23</v>
       </c>
       <c r="AQ14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AR14" t="n">
         <v>100</v>
@@ -3057,16 +3057,16 @@
         <v>65</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.3</v>
+        <v>4.35</v>
       </c>
       <c r="AX14" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AY14" t="n">
         <v>21</v>
       </c>
       <c r="AZ14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="BA14" t="n">
         <v>90</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -2403,16 +2403,16 @@
         <v>2.6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
         <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P11" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q11" t="n">
         <v>2.4</v>
@@ -2585,13 +2585,13 @@
         <v>4.33</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
         <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P12" t="n">
         <v>3.25</v>
@@ -2767,22 +2767,22 @@
         <v>2.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
         <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P13" t="n">
         <v>3.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R13" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -777,10 +777,10 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R2" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="H8" t="n">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="J8" t="n">
         <v>3.55</v>
       </c>
       <c r="K8" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="L8" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
@@ -1863,10 +1863,10 @@
         <v>8.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.31</v>
       </c>
       <c r="P8" t="n">
-        <v>2.92</v>
+        <v>2.9</v>
       </c>
       <c r="Q8" t="n">
         <v>1.95</v>
@@ -1881,16 +1881,16 @@
         <v>2.6</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V8" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="W8" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="X8" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="Y8" t="n">
         <v>11</v>
@@ -1905,82 +1905,82 @@
         <v>35</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG8" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH8" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AI8" t="n">
         <v>10.25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AK8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AM8" t="n">
         <v>29</v>
       </c>
       <c r="AN8" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="AO8" t="n">
         <v>16.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AQ8" t="n">
         <v>75</v>
       </c>
       <c r="AR8" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AS8" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT8" t="n">
         <v>2.62</v>
       </c>
       <c r="AU8" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AV8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="AX8" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AY8" t="n">
         <v>18.5</v>
       </c>
       <c r="AZ8" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="BA8" t="n">
         <v>70</v>
       </c>
       <c r="BB8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -1493,22 +1493,22 @@
         <v>2.2</v>
       </c>
       <c r="M6" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P6" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="R6" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -2051,10 +2051,10 @@
         <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="R9" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.67</v>
+        <v>2.47</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="J14" t="n">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L14" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
@@ -2955,13 +2955,13 @@
         <v>6.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P14" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R14" t="n">
         <v>1.75</v>
@@ -2970,7 +2970,7 @@
         <v>1.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="U14" t="n">
         <v>1.78</v>
@@ -2979,22 +2979,22 @@
         <v>1.93</v>
       </c>
       <c r="W14" t="n">
-        <v>8.25</v>
+        <v>7.9</v>
       </c>
       <c r="X14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Y14" t="n">
-        <v>10.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="AA14" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="AB14" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AC14" t="n">
         <v>6.9</v>
@@ -3012,43 +3012,43 @@
         <v>600</v>
       </c>
       <c r="AH14" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AI14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AJ14" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK14" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL14" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AM14" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.65</v>
+        <v>4.45</v>
       </c>
       <c r="AO14" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AP14" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ14" t="n">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AR14" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS14" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="AU14" t="n">
         <v>7.1</v>
@@ -3057,22 +3057,22 @@
         <v>65</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.35</v>
+        <v>4.6</v>
       </c>
       <c r="AX14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AY14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="BA14" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB14" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H3" t="n">
         <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
         <v>2.4</v>
@@ -995,7 +995,7 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>7</v>
@@ -1040,7 +1040,7 @@
         <v>34</v>
       </c>
       <c r="AR3" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS3" t="n">
         <v>201</v>
@@ -1064,7 +1064,7 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
@@ -1296,16 +1296,16 @@
         <v>1.57</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
         <v>6</v>
       </c>
       <c r="J5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K5" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L5" t="n">
         <v>6.5</v>
@@ -1314,19 +1314,19 @@
         <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="R5" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1335,16 +1335,16 @@
         <v>2.5</v>
       </c>
       <c r="U5" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V5" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W5" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X5" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9</v>
@@ -1353,16 +1353,16 @@
         <v>11</v>
       </c>
       <c r="AA5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>23</v>
@@ -1374,13 +1374,13 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
         <v>29</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="n">
         <v>67</v>
@@ -1389,25 +1389,25 @@
         <v>51</v>
       </c>
       <c r="AM5" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
       </c>
       <c r="AS5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT5" t="n">
         <v>2.5</v>
@@ -1422,7 +1422,7 @@
         <v>7.5</v>
       </c>
       <c r="AX5" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY5" t="n">
         <v>41</v>
@@ -1839,10 +1839,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
         <v>2.18</v>
@@ -1851,28 +1851,28 @@
         <v>3.55</v>
       </c>
       <c r="K8" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>8.1</v>
+        <v>7.8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P8" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="R8" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S8" t="n">
         <v>1.38</v>
@@ -1881,16 +1881,16 @@
         <v>2.6</v>
       </c>
       <c r="U8" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="V8" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="W8" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="X8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="Y8" t="n">
         <v>11</v>
@@ -1905,82 +1905,82 @@
         <v>35</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AD8" t="n">
         <v>6.3</v>
       </c>
       <c r="AE8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AG8" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AH8" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AI8" t="n">
         <v>10.25</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AK8" t="n">
         <v>21</v>
       </c>
       <c r="AL8" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AM8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AN8" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AO8" t="n">
         <v>16.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ8" t="n">
         <v>75</v>
       </c>
       <c r="AR8" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AS8" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AV8" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.1</v>
+        <v>4.05</v>
       </c>
       <c r="AX8" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AY8" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AZ8" t="n">
         <v>45</v>
       </c>
       <c r="BA8" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BB8" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -2045,10 +2045,10 @@
         <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q9" t="n">
         <v>2.1</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.47</v>
+        <v>2.52</v>
       </c>
       <c r="H14" t="n">
         <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.62</v>
+        <v>2.55</v>
       </c>
       <c r="J14" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="K14" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
@@ -2955,13 +2955,13 @@
         <v>6.9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="R14" t="n">
         <v>1.75</v>
@@ -2970,7 +2970,7 @@
         <v>1.4</v>
       </c>
       <c r="T14" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="U14" t="n">
         <v>1.78</v>
@@ -2979,19 +2979,19 @@
         <v>1.93</v>
       </c>
       <c r="W14" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X14" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z14" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AA14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB14" t="n">
         <v>32</v>
@@ -3003,7 +3003,7 @@
         <v>6.3</v>
       </c>
       <c r="AE14" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF14" t="n">
         <v>70</v>
@@ -3015,40 +3015,40 @@
         <v>8.25</v>
       </c>
       <c r="AI14" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AK14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AL14" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AM14" t="n">
         <v>32</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.45</v>
+        <v>4.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR14" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS14" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="AU14" t="n">
         <v>7.1</v>
@@ -3057,22 +3057,22 @@
         <v>65</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="AX14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AZ14" t="n">
         <v>60</v>
       </c>
       <c r="BA14" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="BB14" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -1842,19 +1842,19 @@
         <v>3.1</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="J8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="K8" t="n">
         <v>2.1</v>
       </c>
       <c r="L8" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
@@ -1887,31 +1887,31 @@
         <v>1.87</v>
       </c>
       <c r="W8" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="X8" t="n">
         <v>16</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Z8" t="n">
         <v>40</v>
       </c>
       <c r="AA8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AB8" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AC8" t="n">
         <v>9</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AE8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF8" t="n">
         <v>70</v>
@@ -1920,34 +1920,34 @@
         <v>600</v>
       </c>
       <c r="AH8" t="n">
-        <v>7.2</v>
+        <v>7.5</v>
       </c>
       <c r="AI8" t="n">
-        <v>10.25</v>
+        <v>10.75</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AK8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AL8" t="n">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="AM8" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="AN8" t="n">
         <v>5</v>
       </c>
       <c r="AO8" t="n">
-        <v>16.5</v>
+        <v>17</v>
       </c>
       <c r="AP8" t="n">
         <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AR8" t="n">
         <v>110</v>
@@ -1956,31 +1956,31 @@
         <v>300</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="AV8" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.05</v>
+        <v>4.1</v>
       </c>
       <c r="AX8" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AY8" t="n">
-        <v>19.5</v>
+        <v>18</v>
       </c>
       <c r="AZ8" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="BA8" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BB8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -2045,16 +2045,16 @@
         <v>9</v>
       </c>
       <c r="O9" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P9" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R9" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H7" t="n">
         <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J7" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K7" t="n">
         <v>2.05</v>
       </c>
       <c r="L7" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.4</v>
@@ -1714,7 +1714,7 @@
         <v>9</v>
       </c>
       <c r="Z7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
         <v>17</v>
@@ -1741,10 +1741,10 @@
         <v>11</v>
       </c>
       <c r="AI7" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK7" t="n">
         <v>51</v>
@@ -1759,7 +1759,7 @@
         <v>3.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP7" t="n">
         <v>23</v>
@@ -1768,7 +1768,7 @@
         <v>34</v>
       </c>
       <c r="AR7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS7" t="n">
         <v>201</v>
@@ -1783,7 +1783,7 @@
         <v>67</v>
       </c>
       <c r="AW7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
@@ -1860,7 +1860,7 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="O8" t="n">
         <v>1.32</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -750,16 +750,16 @@
         <v>1.75</v>
       </c>
       <c r="H2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J2" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L2" t="n">
         <v>5.5</v>
@@ -783,10 +783,10 @@
         <v>1.65</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U2" t="n">
         <v>2.05</v>
@@ -807,13 +807,13 @@
         <v>13</v>
       </c>
       <c r="AA2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB2" t="n">
         <v>34</v>
       </c>
       <c r="AC2" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AD2" t="n">
         <v>6.5</v>
@@ -864,7 +864,7 @@
         <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
@@ -929,22 +929,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K3" t="n">
         <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M3" t="n">
         <v>1.08</v>
@@ -986,10 +986,10 @@
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
@@ -1010,10 +1010,10 @@
         <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ3" t="n">
         <v>17</v>
@@ -1031,13 +1031,13 @@
         <v>3.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
@@ -1055,10 +1055,10 @@
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -1311,10 +1311,10 @@
         <v>6.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -2934,34 +2934,34 @@
         <v>2.52</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>2.55</v>
+        <v>2.52</v>
       </c>
       <c r="J14" t="n">
         <v>3.15</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L14" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P14" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="R14" t="n">
         <v>1.75</v>
@@ -2973,10 +2973,10 @@
         <v>2.72</v>
       </c>
       <c r="U14" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V14" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W14" t="n">
         <v>8</v>
@@ -2997,13 +2997,13 @@
         <v>32</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AE14" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AF14" t="n">
         <v>70</v>
@@ -3012,7 +3012,7 @@
         <v>600</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AI14" t="n">
         <v>12.5</v>
@@ -3021,7 +3021,7 @@
         <v>9.75</v>
       </c>
       <c r="AK14" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AL14" t="n">
         <v>22</v>
@@ -3033,7 +3033,7 @@
         <v>4.5</v>
       </c>
       <c r="AO14" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AP14" t="n">
         <v>22</v>
@@ -3051,19 +3051,19 @@
         <v>2.72</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AV14" t="n">
         <v>65</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="AX14" t="n">
         <v>13.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AZ14" t="n">
         <v>60</v>
@@ -3072,7 +3072,7 @@
         <v>90</v>
       </c>
       <c r="BB14" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -2039,22 +2039,22 @@
         <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O9" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P9" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R9" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S9" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -1657,13 +1657,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
         <v>2.4</v>
@@ -1675,16 +1675,16 @@
         <v>5.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q7" t="n">
         <v>2.35</v>
@@ -1723,7 +1723,7 @@
         <v>34</v>
       </c>
       <c r="AC7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
         <v>7</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -1141,10 +1141,10 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S4" t="n">
         <v>1.53</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -1141,10 +1141,10 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
         <v>1.53</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -1675,10 +1675,10 @@
         <v>5.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
         <v>1.44</v>
@@ -2385,13 +2385,13 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="H11" t="n">
         <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J11" t="n">
         <v>5</v>
@@ -2400,13 +2400,13 @@
         <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O11" t="n">
         <v>1.44</v>
@@ -2433,7 +2433,7 @@
         <v>1.62</v>
       </c>
       <c r="W11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="X11" t="n">
         <v>21</v>
@@ -2457,7 +2457,7 @@
         <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF11" t="n">
         <v>67</v>
@@ -2469,10 +2469,10 @@
         <v>5.5</v>
       </c>
       <c r="AI11" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK11" t="n">
         <v>15</v>
@@ -2526,7 +2526,7 @@
         <v>67</v>
       </c>
       <c r="BB11" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H4" t="n">
         <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="J4" t="n">
         <v>5</v>
@@ -1129,10 +1129,10 @@
         <v>2.63</v>
       </c>
       <c r="M4" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -1195,10 +1195,10 @@
         <v>5.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK4" t="n">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -2779,10 +2779,10 @@
         <v>3.4</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R13" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -2385,55 +2385,55 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H11" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I11" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K11" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L11" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N11" t="n">
+        <v>9</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="T11" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U11" t="n">
         <v>2</v>
       </c>
-      <c r="L11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="M11" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N11" t="n">
-        <v>7</v>
-      </c>
-      <c r="O11" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P11" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="S11" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T11" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U11" t="n">
-        <v>2.2</v>
-      </c>
       <c r="V11" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="W11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="X11" t="n">
         <v>21</v>
@@ -2442,16 +2442,16 @@
         <v>15</v>
       </c>
       <c r="Z11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA11" t="n">
         <v>41</v>
       </c>
       <c r="AB11" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AD11" t="n">
         <v>6.5</v>
@@ -2466,19 +2466,19 @@
         <v>201</v>
       </c>
       <c r="AH11" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI11" t="n">
         <v>8</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK11" t="n">
         <v>15</v>
       </c>
       <c r="AL11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM11" t="n">
         <v>34</v>
@@ -2487,25 +2487,25 @@
         <v>6</v>
       </c>
       <c r="AO11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AQ11" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR11" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AS11" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV11" t="n">
         <v>67</v>
@@ -2514,19 +2514,19 @@
         <v>3.75</v>
       </c>
       <c r="AX11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY11" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA11" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB11" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -2597,10 +2597,10 @@
         <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R12" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
@@ -783,22 +783,22 @@
         <v>1.65</v>
       </c>
       <c r="S2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="V2" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
         <v>6</v>
       </c>
       <c r="X2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
@@ -816,7 +816,7 @@
         <v>8</v>
       </c>
       <c r="AD2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -846,7 +846,7 @@
         <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO2" t="n">
         <v>9.5</v>
@@ -864,7 +864,7 @@
         <v>201</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
         <v>9</v>
@@ -1293,16 +1293,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K5" t="n">
         <v>2.1</v>
@@ -1311,10 +1311,10 @@
         <v>6.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O5" t="n">
         <v>1.4</v>
@@ -1362,7 +1362,7 @@
         <v>8</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AE5" t="n">
         <v>23</v>
@@ -1374,7 +1374,7 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
         <v>29</v>
@@ -1395,13 +1395,13 @@
         <v>3.4</v>
       </c>
       <c r="AO5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AP5" t="n">
         <v>23</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
         <v>51</v>
@@ -2463,7 +2463,7 @@
         <v>67</v>
       </c>
       <c r="AG11" t="n">
-        <v>201</v>
+        <v>1250</v>
       </c>
       <c r="AH11" t="n">
         <v>6</v>
@@ -2573,7 +2573,7 @@
         <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="J12" t="n">
         <v>2.75</v>
@@ -2582,7 +2582,7 @@
         <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>1.07</v>
@@ -2591,16 +2591,16 @@
         <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R12" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S12" t="n">
         <v>1.44</v>
@@ -2609,13 +2609,13 @@
         <v>2.63</v>
       </c>
       <c r="U12" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V12" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="W12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="X12" t="n">
         <v>9.5</v>
@@ -2633,7 +2633,7 @@
         <v>29</v>
       </c>
       <c r="AC12" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AD12" t="n">
         <v>6</v>
@@ -2645,7 +2645,7 @@
         <v>51</v>
       </c>
       <c r="AG12" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AH12" t="n">
         <v>11</v>
@@ -2672,7 +2672,7 @@
         <v>11</v>
       </c>
       <c r="AP12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AQ12" t="n">
         <v>41</v>
@@ -2705,7 +2705,7 @@
         <v>67</v>
       </c>
       <c r="BA12" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="BB12" t="n">
         <v>201</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -1374,7 +1374,7 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
         <v>29</v>
@@ -2585,10 +2585,10 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
         <v>1.3</v>
@@ -2931,28 +2931,28 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.52</v>
+        <v>2.37</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>2.52</v>
+        <v>2.72</v>
       </c>
       <c r="J14" t="n">
-        <v>3.15</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
         <v>2.12</v>
       </c>
       <c r="L14" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="O14" t="n">
         <v>1.34</v>
@@ -2973,34 +2973,34 @@
         <v>2.72</v>
       </c>
       <c r="U14" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="V14" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="W14" t="n">
-        <v>8</v>
+        <v>7.7</v>
       </c>
       <c r="X14" t="n">
-        <v>12.5</v>
+        <v>11.5</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AA14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AB14" t="n">
         <v>32</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AE14" t="n">
         <v>14.5</v>
@@ -3012,64 +3012,64 @@
         <v>600</v>
       </c>
       <c r="AH14" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI14" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AO14" t="n">
         <v>12.5</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>27</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>22</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>13.5</v>
-      </c>
       <c r="AP14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ14" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AR14" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS14" t="n">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="AT14" t="n">
         <v>2.72</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AV14" t="n">
         <v>65</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.45</v>
+        <v>4.7</v>
       </c>
       <c r="AX14" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AY14" t="n">
         <v>22</v>
       </c>
       <c r="AZ14" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BA14" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="BB14" t="n">
         <v>300</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="H4" t="n">
         <v>3.25</v>
       </c>
       <c r="I4" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J4" t="n">
         <v>5</v>
@@ -1126,7 +1126,7 @@
         <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -1183,10 +1183,10 @@
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG4" t="n">
         <v>1250</v>
@@ -1195,10 +1195,10 @@
         <v>5.5</v>
       </c>
       <c r="AI4" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK4" t="n">
         <v>15</v>
@@ -1231,7 +1231,7 @@
         <v>2.38</v>
       </c>
       <c r="AU4" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
         <v>5.75</v>
@@ -1311,22 +1311,22 @@
         <v>6.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="N5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P5" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="R5" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1413,7 +1413,7 @@
         <v>2.5</v>
       </c>
       <c r="AU5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV5" t="n">
         <v>81</v>
@@ -1478,16 +1478,16 @@
         <v>6.25</v>
       </c>
       <c r="H6" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I6" t="n">
         <v>1.57</v>
       </c>
       <c r="J6" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L6" t="n">
         <v>2.2</v>
@@ -1505,10 +1505,10 @@
         <v>3.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R6" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1517,13 +1517,13 @@
         <v>2.63</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="X6" t="n">
         <v>29</v>
@@ -1541,28 +1541,28 @@
         <v>51</v>
       </c>
       <c r="AC6" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
         <v>1000</v>
       </c>
       <c r="AH6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI6" t="n">
         <v>6.5</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK6" t="n">
         <v>11</v>
@@ -1583,7 +1583,7 @@
         <v>41</v>
       </c>
       <c r="AQ6" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AR6" t="n">
         <v>151</v>
@@ -1595,7 +1595,7 @@
         <v>2.63</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
@@ -1607,7 +1607,7 @@
         <v>8</v>
       </c>
       <c r="AY6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AZ6" t="n">
         <v>26</v>
@@ -1616,7 +1616,7 @@
         <v>51</v>
       </c>
       <c r="BB6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1860,19 +1860,19 @@
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O8" t="n">
-        <v>1.32</v>
+        <v>1.31</v>
       </c>
       <c r="P8" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R8" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S8" t="n">
         <v>1.38</v>
@@ -1881,31 +1881,31 @@
         <v>2.6</v>
       </c>
       <c r="U8" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="V8" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="W8" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="X8" t="n">
         <v>16</v>
       </c>
       <c r="Y8" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="Z8" t="n">
         <v>40</v>
       </c>
       <c r="AA8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AB8" t="n">
         <v>37</v>
       </c>
       <c r="AC8" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AD8" t="n">
         <v>6.2</v>
@@ -1914,16 +1914,16 @@
         <v>14</v>
       </c>
       <c r="AF8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG8" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AH8" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AI8" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AJ8" t="n">
         <v>8.75</v>
@@ -1932,10 +1932,10 @@
         <v>22</v>
       </c>
       <c r="AL8" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AM8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AN8" t="n">
         <v>5</v>
@@ -1959,7 +1959,7 @@
         <v>2.6</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.8</v>
+        <v>6.7</v>
       </c>
       <c r="AV8" t="n">
         <v>55</v>
@@ -1977,7 +1977,7 @@
         <v>40</v>
       </c>
       <c r="BA8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BB8" t="n">
         <v>200</v>
@@ -2039,10 +2039,10 @@
         <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
@@ -2567,28 +2567,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="J12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K12" t="n">
         <v>2.1</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O12" t="n">
         <v>1.3</v>
@@ -2600,13 +2600,13 @@
         <v>2.05</v>
       </c>
       <c r="R12" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="T12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="U12" t="n">
         <v>1.8</v>
@@ -2636,7 +2636,7 @@
         <v>9</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
         <v>15</v>
@@ -2684,7 +2684,7 @@
         <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="AU12" t="n">
         <v>8</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J5" t="n">
         <v>2.25</v>
@@ -1311,22 +1311,22 @@
         <v>6.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N5" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P5" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R5" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S5" t="n">
         <v>1.5</v>
@@ -1359,13 +1359,13 @@
         <v>34</v>
       </c>
       <c r="AC5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD5" t="n">
         <v>7.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF5" t="n">
         <v>81</v>
@@ -1374,7 +1374,7 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
         <v>29</v>
@@ -1419,7 +1419,7 @@
         <v>81</v>
       </c>
       <c r="AW5" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX5" t="n">
         <v>34</v>
@@ -1505,10 +1505,10 @@
         <v>3.25</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R6" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S6" t="n">
         <v>1.44</v>
@@ -1839,115 +1839,115 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H8" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I8" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="K8" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L8" t="n">
-        <v>2.72</v>
+        <v>2.87</v>
       </c>
       <c r="M8" t="n">
         <v>1.01</v>
       </c>
       <c r="N8" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="O8" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="P8" t="n">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.95</v>
+        <v>1.88</v>
       </c>
       <c r="R8" t="n">
-        <v>1.75</v>
+        <v>1.82</v>
       </c>
       <c r="S8" t="n">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="T8" t="n">
-        <v>2.6</v>
+        <v>2.52</v>
       </c>
       <c r="U8" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="V8" t="n">
-        <v>1.91</v>
+        <v>1.98</v>
       </c>
       <c r="W8" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="X8" t="n">
         <v>16</v>
       </c>
       <c r="Y8" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AA8" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="AB8" t="n">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="AC8" t="n">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AE8" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AF8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AG8" t="n">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="AH8" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="AI8" t="n">
         <v>11</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AK8" t="n">
         <v>22</v>
       </c>
       <c r="AL8" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AM8" t="n">
         <v>27</v>
       </c>
       <c r="AN8" t="n">
-        <v>5</v>
+        <v>4.85</v>
       </c>
       <c r="AO8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AP8" t="n">
         <v>23</v>
       </c>
       <c r="AQ8" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AR8" t="n">
         <v>110</v>
@@ -1956,31 +1956,31 @@
         <v>300</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.7</v>
+        <v>6.9</v>
       </c>
       <c r="AV8" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.1</v>
+        <v>4.15</v>
       </c>
       <c r="AX8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ8" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="BA8" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="BB8" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -2021,28 +2021,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H9" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N9" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
@@ -2051,22 +2051,22 @@
         <v>2.75</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R9" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S9" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U9" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W9" t="n">
         <v>6.5</v>
@@ -2078,22 +2078,22 @@
         <v>9.5</v>
       </c>
       <c r="Z9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA9" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AB9" t="n">
         <v>34</v>
       </c>
       <c r="AC9" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF9" t="n">
         <v>51</v>
@@ -2102,7 +2102,7 @@
         <v>351</v>
       </c>
       <c r="AH9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AI9" t="n">
         <v>17</v>
@@ -2123,10 +2123,10 @@
         <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ9" t="n">
         <v>41</v>
@@ -2138,7 +2138,7 @@
         <v>201</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU9" t="n">
         <v>8.5</v>
@@ -2153,7 +2153,7 @@
         <v>21</v>
       </c>
       <c r="AY9" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AZ9" t="n">
         <v>67</v>
@@ -2221,13 +2221,13 @@
         <v>5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N10" t="n">
         <v>9</v>
       </c>
       <c r="O10" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="P10" t="n">
         <v>3</v>
@@ -2385,16 +2385,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.1</v>
+        <v>4.33</v>
       </c>
       <c r="H11" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I11" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="J11" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>2.05</v>
@@ -2403,34 +2403,34 @@
         <v>2.6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O11" t="n">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="P11" t="n">
         <v>2.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="R11" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="S11" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="T11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="U11" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V11" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W11" t="n">
         <v>10</v>
@@ -2442,16 +2442,16 @@
         <v>15</v>
       </c>
       <c r="Z11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AA11" t="n">
         <v>41</v>
       </c>
       <c r="AB11" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AD11" t="n">
         <v>6.5</v>
@@ -2469,7 +2469,7 @@
         <v>6</v>
       </c>
       <c r="AI11" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AJ11" t="n">
         <v>9</v>
@@ -2487,25 +2487,25 @@
         <v>6</v>
       </c>
       <c r="AO11" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AQ11" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AR11" t="n">
         <v>126</v>
       </c>
       <c r="AS11" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU11" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV11" t="n">
         <v>67</v>
@@ -2523,7 +2523,7 @@
         <v>34</v>
       </c>
       <c r="BA11" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB11" t="n">
         <v>201</v>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J12" t="n">
         <v>2.63</v>
@@ -2585,28 +2585,28 @@
         <v>4.33</v>
       </c>
       <c r="M12" t="n">
-        <v>1.07</v>
+        <v>1.03</v>
       </c>
       <c r="N12" t="n">
         <v>9</v>
       </c>
       <c r="O12" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R12" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="S12" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="T12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="U12" t="n">
         <v>1.8</v>
@@ -2615,7 +2615,7 @@
         <v>1.91</v>
       </c>
       <c r="W12" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="X12" t="n">
         <v>9.5</v>
@@ -2636,7 +2636,7 @@
         <v>9</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE12" t="n">
         <v>15</v>
@@ -2651,7 +2651,7 @@
         <v>11</v>
       </c>
       <c r="AI12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AJ12" t="n">
         <v>13</v>
@@ -2684,7 +2684,7 @@
         <v>151</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="AU12" t="n">
         <v>8</v>
@@ -2705,7 +2705,7 @@
         <v>67</v>
       </c>
       <c r="BA12" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BB12" t="n">
         <v>201</v>
@@ -2767,22 +2767,22 @@
         <v>2.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.02</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="P13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="R13" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
@@ -2931,13 +2931,13 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>2.72</v>
+        <v>2.67</v>
       </c>
       <c r="J14" t="n">
         <v>3</v>
@@ -2946,7 +2946,7 @@
         <v>2.12</v>
       </c>
       <c r="L14" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
@@ -2973,10 +2973,10 @@
         <v>2.72</v>
       </c>
       <c r="U14" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="V14" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="W14" t="n">
         <v>7.7</v>
@@ -3012,28 +3012,28 @@
         <v>600</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AI14" t="n">
         <v>13.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AK14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>23</v>
+      </c>
+      <c r="AM14" t="n">
         <v>32</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>35</v>
       </c>
       <c r="AN14" t="n">
         <v>4.35</v>
       </c>
       <c r="AO14" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP14" t="n">
         <v>21</v>
@@ -3045,7 +3045,7 @@
         <v>90</v>
       </c>
       <c r="AS14" t="n">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="AT14" t="n">
         <v>2.72</v>
@@ -3057,7 +3057,7 @@
         <v>65</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.7</v>
+        <v>4.65</v>
       </c>
       <c r="AX14" t="n">
         <v>14.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -747,148 +747,148 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="J2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P2" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q2" t="n">
         <v>2.4</v>
       </c>
-      <c r="K2" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L2" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M2" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N2" t="n">
-        <v>8</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P2" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.2</v>
-      </c>
       <c r="R2" t="n">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="T2" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="U2" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="V2" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB2" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AG2" t="n">
         <v>501</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI2" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL2" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ2" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>151</v>
+      </c>
+      <c r="BA2" t="n">
         <v>201</v>
       </c>
-      <c r="AT2" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>9</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>67</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>29</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>101</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>151</v>
-      </c>
       <c r="BB2" t="n">
-        <v>351</v>
+        <v>501</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -932,16 +932,16 @@
         <v>1.67</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I3" t="n">
         <v>5.25</v>
       </c>
       <c r="J3" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
         <v>6</v>
@@ -953,16 +953,16 @@
         <v>8</v>
       </c>
       <c r="O3" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="J4" t="n">
         <v>4.5</v>
       </c>
-      <c r="H4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5</v>
-      </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -1153,28 +1153,28 @@
         <v>2.38</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="X4" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AB4" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC4" t="n">
         <v>7</v>
@@ -1183,46 +1183,46 @@
         <v>6.5</v>
       </c>
       <c r="AE4" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="n">
         <v>1250</v>
       </c>
       <c r="AH4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN4" t="n">
         <v>5.5</v>
       </c>
-      <c r="AI4" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM4" t="n">
+      <c r="AO4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AP4" t="n">
         <v>34</v>
       </c>
-      <c r="AN4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>26</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>41</v>
-      </c>
       <c r="AQ4" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AR4" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AS4" t="n">
         <v>351</v>
@@ -1231,16 +1231,16 @@
         <v>2.38</v>
       </c>
       <c r="AU4" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV4" t="n">
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AY4" t="n">
         <v>26</v>
@@ -1293,145 +1293,145 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="J5" t="n">
         <v>2.25</v>
       </c>
       <c r="K5" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L5" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N5" t="n">
         <v>6.5</v>
       </c>
-      <c r="M5" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N5" t="n">
-        <v>7.5</v>
-      </c>
       <c r="O5" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="T5" t="n">
         <v>2.25</v>
       </c>
-      <c r="R5" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T5" t="n">
-        <v>2.5</v>
-      </c>
       <c r="U5" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="V5" t="n">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="W5" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="X5" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Y5" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
         <v>11</v>
       </c>
       <c r="AA5" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB5" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
         <v>7.5</v>
       </c>
       <c r="AE5" t="n">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="AF5" t="n">
-        <v>81</v>
+        <v>126</v>
       </c>
       <c r="AG5" t="n">
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
         <v>29</v>
       </c>
       <c r="AJ5" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK5" t="n">
+        <v>81</v>
+      </c>
+      <c r="AL5" t="n">
         <v>67</v>
       </c>
-      <c r="AL5" t="n">
-        <v>51</v>
-      </c>
       <c r="AM5" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AO5" t="n">
         <v>8.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
         <v>29</v>
       </c>
       <c r="AR5" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS5" t="n">
+        <v>301</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>101</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>51</v>
+      </c>
+      <c r="AZ5" t="n">
         <v>201</v>
       </c>
-      <c r="AT5" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="AU5" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AV5" t="n">
-        <v>81</v>
-      </c>
-      <c r="AW5" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX5" t="n">
-        <v>34</v>
-      </c>
-      <c r="AY5" t="n">
-        <v>41</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>151</v>
-      </c>
       <c r="BA5" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BB5" t="n">
         <v>501</v>
@@ -1475,115 +1475,115 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>6.25</v>
+        <v>5.5</v>
       </c>
       <c r="H6" t="n">
-        <v>3.8</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>1.57</v>
+        <v>1.73</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K6" t="n">
+        <v>2</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S6" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U6" t="n">
         <v>2.2</v>
       </c>
-      <c r="L6" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N6" t="n">
-        <v>10</v>
-      </c>
-      <c r="O6" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>2.08</v>
-      </c>
-      <c r="R6" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S6" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T6" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U6" t="n">
-        <v>2.1</v>
-      </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="X6" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="Y6" t="n">
+        <v>17</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>51</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>7</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AE6" t="n">
         <v>21</v>
       </c>
-      <c r="Z6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>51</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AD6" t="n">
+      <c r="AF6" t="n">
+        <v>81</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>1250</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AI6" t="n">
         <v>7</v>
       </c>
-      <c r="AE6" t="n">
-        <v>19</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>67</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>6.5</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL6" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM6" t="n">
         <v>34</v>
       </c>
       <c r="AN6" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP6" t="n">
         <v>41</v>
       </c>
       <c r="AQ6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AR6" t="n">
         <v>151</v>
@@ -1592,31 +1592,31 @@
         <v>351</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="AX6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AY6" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ6" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB6" t="n">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1657,76 +1657,76 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J7" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="K7" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="L7" t="n">
         <v>5.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="T7" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U7" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V7" t="n">
         <v>1.57</v>
-      </c>
-      <c r="S7" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="T7" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="U7" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1.62</v>
       </c>
       <c r="W7" t="n">
         <v>5.5</v>
       </c>
       <c r="X7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y7" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AB7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE7" t="n">
         <v>21</v>
@@ -1738,10 +1738,10 @@
         <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AI7" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ7" t="n">
         <v>17</v>
@@ -1756,34 +1756,34 @@
         <v>51</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AP7" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AR7" t="n">
         <v>67</v>
       </c>
       <c r="AS7" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="AU7" t="n">
         <v>9.5</v>
       </c>
       <c r="AV7" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
@@ -1792,7 +1792,7 @@
         <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA7" t="n">
         <v>151</v>
@@ -1839,40 +1839,40 @@
         </is>
       </c>
       <c r="G8" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="I8" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="J8" t="n">
         <v>3</v>
       </c>
-      <c r="H8" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="J8" t="n">
-        <v>3.55</v>
-      </c>
       <c r="K8" t="n">
-        <v>2.05</v>
+        <v>2.22</v>
       </c>
       <c r="L8" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="M8" t="n">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="N8" t="n">
-        <v>8.1</v>
+        <v>13</v>
       </c>
       <c r="O8" t="n">
-        <v>1.28</v>
+        <v>1.19</v>
       </c>
       <c r="P8" t="n">
-        <v>3.05</v>
+        <v>3.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.88</v>
+        <v>1.57</v>
       </c>
       <c r="R8" t="n">
-        <v>1.82</v>
+        <v>2.1</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1881,106 +1881,106 @@
         <v>2.52</v>
       </c>
       <c r="U8" t="n">
-        <v>1.65</v>
+        <v>1.5</v>
       </c>
       <c r="V8" t="n">
-        <v>1.98</v>
+        <v>2.27</v>
       </c>
       <c r="W8" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="X8" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="Y8" t="n">
         <v>9.75</v>
       </c>
-      <c r="X8" t="n">
-        <v>16</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>10.5</v>
-      </c>
       <c r="Z8" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="AA8" t="n">
-        <v>25</v>
+        <v>18.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="AC8" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AD8" t="n">
-        <v>6.3</v>
+        <v>7.1</v>
       </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AG8" t="n">
-        <v>450</v>
+        <v>250</v>
       </c>
       <c r="AH8" t="n">
-        <v>7.9</v>
+        <v>10.75</v>
       </c>
       <c r="AI8" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AL8" t="n">
         <v>18</v>
       </c>
       <c r="AM8" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.85</v>
+        <v>4.7</v>
       </c>
       <c r="AO8" t="n">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AR8" t="n">
-        <v>110</v>
+        <v>70</v>
       </c>
       <c r="AS8" t="n">
-        <v>300</v>
+        <v>175</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.47</v>
+        <v>2.85</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.9</v>
+        <v>6.4</v>
       </c>
       <c r="AV8" t="n">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.15</v>
+        <v>4.6</v>
       </c>
       <c r="AX8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="AZ8" t="n">
         <v>50</v>
       </c>
       <c r="BA8" t="n">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="BB8" t="n">
-        <v>250</v>
+        <v>175</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>
@@ -2021,61 +2021,61 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="H9" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="J9" t="n">
         <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="P9" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="S9" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T9" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U9" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="W9" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y9" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z9" t="n">
         <v>21</v>
@@ -2084,25 +2084,25 @@
         <v>21</v>
       </c>
       <c r="AB9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD9" t="n">
         <v>6</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG9" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AH9" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AI9" t="n">
         <v>17</v>
@@ -2126,22 +2126,22 @@
         <v>13</v>
       </c>
       <c r="AP9" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ9" t="n">
         <v>41</v>
       </c>
       <c r="AR9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AS9" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AT9" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
         <v>67</v>
@@ -2156,13 +2156,13 @@
         <v>34</v>
       </c>
       <c r="AZ9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB9" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="BC9" t="n">
         <v>51</v>
@@ -2203,40 +2203,40 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H10" t="n">
         <v>3.3</v>
       </c>
       <c r="I10" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K10" t="n">
         <v>2.1</v>
       </c>
       <c r="L10" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="P10" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R10" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S10" t="n">
         <v>1.44</v>
@@ -2245,52 +2245,52 @@
         <v>2.63</v>
       </c>
       <c r="U10" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="W10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="X10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>9</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>13</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>17</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>34</v>
+      </c>
+      <c r="AC10" t="n">
         <v>8</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="Z10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>15</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>8.5</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
       </c>
       <c r="AE10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AG10" t="n">
         <v>351</v>
       </c>
       <c r="AH10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI10" t="n">
         <v>23</v>
       </c>
       <c r="AJ10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK10" t="n">
         <v>51</v>
@@ -2299,16 +2299,16 @@
         <v>41</v>
       </c>
       <c r="AM10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN10" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AO10" t="n">
         <v>9.5</v>
       </c>
       <c r="AP10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AQ10" t="n">
         <v>34</v>
@@ -2317,34 +2317,34 @@
         <v>51</v>
       </c>
       <c r="AS10" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT10" t="n">
         <v>2.63</v>
       </c>
       <c r="AU10" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
       </c>
       <c r="AW10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX10" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AY10" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AZ10" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="BA10" t="n">
         <v>126</v>
       </c>
       <c r="BB10" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="BC10" t="n">
         <v>51</v>
@@ -2385,61 +2385,61 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="H11" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I11" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J11" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="K11" t="n">
-        <v>2.05</v>
+        <v>1.91</v>
       </c>
       <c r="L11" t="n">
         <v>2.6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.34</v>
+        <v>1.53</v>
       </c>
       <c r="P11" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.3</v>
+        <v>2.6</v>
       </c>
       <c r="R11" t="n">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="S11" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="T11" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="U11" t="n">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="V11" t="n">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="W11" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="X11" t="n">
         <v>21</v>
       </c>
       <c r="Y11" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z11" t="n">
         <v>51</v>
@@ -2451,82 +2451,82 @@
         <v>51</v>
       </c>
       <c r="AC11" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD11" t="n">
         <v>6.5</v>
       </c>
       <c r="AE11" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AF11" t="n">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="AG11" t="n">
         <v>1250</v>
       </c>
       <c r="AH11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ11" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK11" t="n">
         <v>15</v>
       </c>
       <c r="AL11" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN11" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AO11" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP11" t="n">
         <v>41</v>
       </c>
       <c r="AQ11" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR11" t="n">
-        <v>126</v>
+        <v>201</v>
       </c>
       <c r="AS11" t="n">
         <v>351</v>
       </c>
       <c r="AT11" t="n">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="AU11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV11" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW11" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AX11" t="n">
         <v>10</v>
       </c>
       <c r="AY11" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AZ11" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="BA11" t="n">
         <v>67</v>
       </c>
       <c r="BB11" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="BC11" t="n">
         <v>51</v>
@@ -2567,148 +2567,148 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="H12" t="n">
         <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="J12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2</v>
+      </c>
+      <c r="L12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N12" t="n">
+        <v>7</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P12" t="n">
         <v>2.63</v>
       </c>
-      <c r="K12" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="N12" t="n">
-        <v>9</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3.25</v>
-      </c>
       <c r="Q12" t="n">
-        <v>2.08</v>
+        <v>2.4</v>
       </c>
       <c r="R12" t="n">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="S12" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="T12" t="n">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="U12" t="n">
-        <v>1.8</v>
+        <v>2.25</v>
       </c>
       <c r="V12" t="n">
-        <v>1.91</v>
+        <v>1.57</v>
       </c>
       <c r="W12" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="X12" t="n">
         <v>7</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Y12" t="n">
         <v>9.5</v>
       </c>
-      <c r="Y12" t="n">
-        <v>9</v>
-      </c>
       <c r="Z12" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA12" t="n">
         <v>17</v>
       </c>
       <c r="AB12" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE12" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="AG12" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AH12" t="n">
         <v>11</v>
       </c>
       <c r="AI12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ12" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="AK12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AL12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>26</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>34</v>
       </c>
-      <c r="AM12" t="n">
-        <v>41</v>
-      </c>
-      <c r="AN12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AO12" t="n">
-        <v>11</v>
-      </c>
-      <c r="AP12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>41</v>
-      </c>
       <c r="AR12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS12" t="n">
+        <v>251</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AU12" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>81</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>29</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA12" t="n">
         <v>151</v>
       </c>
-      <c r="AT12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="AU12" t="n">
-        <v>8</v>
-      </c>
-      <c r="AV12" t="n">
-        <v>51</v>
-      </c>
-      <c r="AW12" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AX12" t="n">
-        <v>21</v>
-      </c>
-      <c r="AY12" t="n">
-        <v>29</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>67</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>101</v>
-      </c>
       <c r="BB12" t="n">
-        <v>201</v>
+        <v>351</v>
       </c>
       <c r="BC12" t="n">
         <v>51</v>
@@ -2749,40 +2749,40 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="H13" t="n">
         <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J13" t="n">
         <v>4</v>
       </c>
       <c r="K13" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L13" t="n">
         <v>2.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
         <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R13" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
@@ -2791,10 +2791,10 @@
         <v>2.75</v>
       </c>
       <c r="U13" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="V13" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="W13" t="n">
         <v>11</v>
@@ -2812,58 +2812,58 @@
         <v>29</v>
       </c>
       <c r="AB13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC13" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF13" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AG13" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AH13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AI13" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AJ13" t="n">
         <v>9</v>
       </c>
       <c r="AK13" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL13" t="n">
         <v>17</v>
       </c>
       <c r="AM13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN13" t="n">
         <v>5.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ13" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AR13" t="n">
         <v>81</v>
       </c>
       <c r="AS13" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AT13" t="n">
         <v>2.75</v>
@@ -2931,148 +2931,148 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.4</v>
+        <v>2.18</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I14" t="n">
-        <v>2.67</v>
+        <v>3.1</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="K14" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L14" t="n">
-        <v>3.25</v>
+        <v>3.7</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="R14" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S14" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="T14" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="U14" t="n">
-        <v>1.8</v>
+        <v>1.85</v>
       </c>
       <c r="V14" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="W14" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="X14" t="n">
-        <v>11.5</v>
+        <v>10</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="AB14" t="n">
         <v>32</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.9</v>
+        <v>6.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AE14" t="n">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AG14" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.25</v>
+        <v>8.5</v>
       </c>
       <c r="AI14" t="n">
-        <v>13.5</v>
+        <v>15.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>10</v>
+        <v>11.25</v>
       </c>
       <c r="AK14" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="AL14" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AM14" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.35</v>
+        <v>4.05</v>
       </c>
       <c r="AO14" t="n">
-        <v>13</v>
+        <v>11.5</v>
       </c>
       <c r="AP14" t="n">
         <v>21</v>
       </c>
       <c r="AQ14" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AR14" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AS14" t="n">
         <v>300</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.72</v>
+        <v>2.65</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AV14" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.65</v>
+        <v>5</v>
       </c>
       <c r="AX14" t="n">
-        <v>14.5</v>
+        <v>17.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AZ14" t="n">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="BA14" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="BB14" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -771,10 +771,10 @@
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P2" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q2" t="n">
         <v>2.4</v>
@@ -1117,7 +1117,7 @@
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="J4" t="n">
         <v>4.5</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.57</v>
+        <v>1.51</v>
       </c>
       <c r="H5" t="n">
         <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
         <v>2.25</v>
@@ -1317,10 +1317,10 @@
         <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P5" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Q5" t="n">
         <v>2.6</v>
@@ -1335,22 +1335,22 @@
         <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W5" t="n">
         <v>4.5</v>
       </c>
       <c r="X5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9.5</v>
       </c>
       <c r="Z5" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA5" t="n">
         <v>17</v>
@@ -1362,7 +1362,7 @@
         <v>6.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>29</v>
@@ -1377,10 +1377,10 @@
         <v>11</v>
       </c>
       <c r="AI5" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AJ5" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AK5" t="n">
         <v>81</v>
@@ -1392,13 +1392,13 @@
         <v>81</v>
       </c>
       <c r="AN5" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="AO5" t="n">
         <v>8.5</v>
       </c>
       <c r="AP5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ5" t="n">
         <v>29</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="J6" t="n">
         <v>5.5</v>
@@ -1493,10 +1493,10 @@
         <v>2.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1505,10 +1505,10 @@
         <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
         <v>1.53</v>
@@ -1517,31 +1517,31 @@
         <v>2.38</v>
       </c>
       <c r="U6" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V6" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W6" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="X6" t="n">
         <v>23</v>
       </c>
       <c r="Y6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z6" t="n">
         <v>51</v>
       </c>
       <c r="AA6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AB6" t="n">
         <v>51</v>
       </c>
       <c r="AC6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
@@ -1562,7 +1562,7 @@
         <v>7</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK6" t="n">
         <v>13</v>
@@ -1571,7 +1571,7 @@
         <v>17</v>
       </c>
       <c r="AM6" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
         <v>6.5</v>
@@ -1583,7 +1583,7 @@
         <v>41</v>
       </c>
       <c r="AQ6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR6" t="n">
         <v>151</v>
@@ -1598,10 +1598,10 @@
         <v>9.5</v>
       </c>
       <c r="AV6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AX6" t="n">
         <v>10</v>
@@ -1675,10 +1675,10 @@
         <v>5.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.5</v>
@@ -2206,55 +2206,55 @@
         <v>1.73</v>
       </c>
       <c r="H10" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="I10" t="n">
         <v>5</v>
       </c>
       <c r="J10" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L10" t="n">
         <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P10" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q10" t="n">
-        <v>2.25</v>
+        <v>2.35</v>
       </c>
       <c r="R10" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T10" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U10" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V10" t="n">
         <v>1.62</v>
       </c>
-      <c r="S10" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="T10" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="U10" t="n">
-        <v>2</v>
-      </c>
-      <c r="V10" t="n">
-        <v>1.73</v>
-      </c>
       <c r="W10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X10" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y10" t="n">
         <v>9</v>
@@ -2269,7 +2269,7 @@
         <v>34</v>
       </c>
       <c r="AC10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AD10" t="n">
         <v>6.5</v>
@@ -2290,7 +2290,7 @@
         <v>23</v>
       </c>
       <c r="AJ10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK10" t="n">
         <v>51</v>
@@ -2314,16 +2314,16 @@
         <v>34</v>
       </c>
       <c r="AR10" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS10" t="n">
         <v>201</v>
       </c>
       <c r="AT10" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="AU10" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV10" t="n">
         <v>67</v>
@@ -2341,7 +2341,7 @@
         <v>101</v>
       </c>
       <c r="BA10" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BB10" t="n">
         <v>351</v>
@@ -2573,7 +2573,7 @@
         <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
         <v>2.5</v>
@@ -2585,10 +2585,10 @@
         <v>5.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
@@ -2609,10 +2609,10 @@
         <v>2.38</v>
       </c>
       <c r="U12" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V12" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W12" t="n">
         <v>5.5</v>
@@ -2621,7 +2621,7 @@
         <v>7</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
         <v>13</v>
@@ -2660,7 +2660,7 @@
         <v>51</v>
       </c>
       <c r="AL12" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AM12" t="n">
         <v>51</v>
@@ -2702,7 +2702,7 @@
         <v>41</v>
       </c>
       <c r="AZ12" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA12" t="n">
         <v>151</v>
@@ -2803,7 +2803,7 @@
         <v>19</v>
       </c>
       <c r="Y13" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z13" t="n">
         <v>41</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
@@ -771,10 +771,10 @@
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q2" t="n">
         <v>2.4</v>
@@ -1117,7 +1117,7 @@
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.01</v>
+        <v>2.05</v>
       </c>
       <c r="J4" t="n">
         <v>4.5</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="H5" t="n">
         <v>3.7</v>
@@ -1481,7 +1481,7 @@
         <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="J6" t="n">
         <v>5.5</v>
@@ -1493,10 +1493,10 @@
         <v>2.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1690,7 +1690,7 @@
         <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S7" t="n">
         <v>1.53</v>
@@ -2027,13 +2027,13 @@
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J9" t="n">
         <v>3</v>
       </c>
       <c r="K9" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L9" t="n">
         <v>4.33</v>
@@ -2221,10 +2221,10 @@
         <v>5.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N10" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O10" t="n">
         <v>1.44</v>
@@ -2567,28 +2567,28 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>5</v>
+        <v>5.75</v>
       </c>
       <c r="J12" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K12" t="n">
         <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
@@ -2609,22 +2609,22 @@
         <v>2.38</v>
       </c>
       <c r="U12" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="V12" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="W12" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA12" t="n">
         <v>17</v>
@@ -2651,25 +2651,25 @@
         <v>11</v>
       </c>
       <c r="AI12" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AJ12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL12" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM12" t="n">
         <v>51</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP12" t="n">
         <v>26</v>
@@ -2684,28 +2684,28 @@
         <v>251</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="AU12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV12" t="n">
         <v>81</v>
       </c>
       <c r="AW12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX12" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY12" t="n">
         <v>41</v>
       </c>
       <c r="AZ12" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA12" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB12" t="n">
         <v>351</v>
@@ -2779,10 +2779,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="R13" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="H3" t="n">
         <v>3.75</v>
@@ -959,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J4" t="n">
         <v>4.5</v>
@@ -1144,7 +1144,7 @@
         <v>2.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
         <v>1.53</v>
@@ -1180,7 +1180,7 @@
         <v>7</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
@@ -1195,7 +1195,7 @@
         <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ4" t="n">
         <v>9.5</v>
@@ -1299,7 +1299,7 @@
         <v>3.7</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J5" t="n">
         <v>2.25</v>
@@ -1317,16 +1317,16 @@
         <v>6.5</v>
       </c>
       <c r="O5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P5" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="Q5" t="n">
         <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1335,10 +1335,10 @@
         <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W5" t="n">
         <v>4.5</v>
@@ -1347,7 +1347,7 @@
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z5" t="n">
         <v>10</v>
@@ -1499,16 +1499,16 @@
         <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P6" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q6" t="n">
         <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S6" t="n">
         <v>1.53</v>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="H7" t="n">
         <v>3.25</v>
@@ -1690,7 +1690,7 @@
         <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
         <v>1.53</v>
@@ -2021,19 +2021,19 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="J9" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K9" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L9" t="n">
         <v>4.33</v>
@@ -2072,7 +2072,7 @@
         <v>6</v>
       </c>
       <c r="X9" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Y9" t="n">
         <v>10</v>
@@ -2102,10 +2102,10 @@
         <v>301</v>
       </c>
       <c r="AH9" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="n">
         <v>13</v>
@@ -2147,7 +2147,7 @@
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AX9" t="n">
         <v>21</v>
@@ -2156,10 +2156,10 @@
         <v>34</v>
       </c>
       <c r="AZ9" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BA9" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BB9" t="n">
         <v>351</v>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I12" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J12" t="n">
         <v>2.4</v>
@@ -2585,10 +2585,10 @@
         <v>6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
@@ -2615,16 +2615,16 @@
         <v>1.57</v>
       </c>
       <c r="W12" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y12" t="n">
         <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA12" t="n">
         <v>17</v>
@@ -2654,7 +2654,7 @@
         <v>26</v>
       </c>
       <c r="AJ12" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK12" t="n">
         <v>67</v>
@@ -2684,16 +2684,16 @@
         <v>251</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="AU12" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV12" t="n">
         <v>81</v>
       </c>
       <c r="AW12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX12" t="n">
         <v>34</v>
@@ -2705,7 +2705,7 @@
         <v>126</v>
       </c>
       <c r="BA12" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="BB12" t="n">
         <v>351</v>
@@ -2779,10 +2779,10 @@
         <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R13" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
@@ -777,10 +777,10 @@
         <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>1.49</v>
       </c>
       <c r="S2" t="n">
         <v>1.53</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="H3" t="n">
         <v>3.75</v>
@@ -959,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R3" t="n">
-        <v>1.65</v>
+        <v>1.61</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1123,10 +1123,10 @@
         <v>4.5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L4" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -1141,10 +1141,10 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S4" t="n">
         <v>1.53</v>
@@ -1311,10 +1311,10 @@
         <v>7.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1323,10 +1323,10 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1475,16 +1475,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H6" t="n">
         <v>3.25</v>
       </c>
       <c r="I6" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="J6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
         <v>2</v>
@@ -1499,16 +1499,16 @@
         <v>7</v>
       </c>
       <c r="O6" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P6" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q6" t="n">
         <v>2.5</v>
       </c>
       <c r="R6" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S6" t="n">
         <v>1.53</v>
@@ -1523,16 +1523,16 @@
         <v>1.57</v>
       </c>
       <c r="W6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y6" t="n">
         <v>19</v>
       </c>
       <c r="Z6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA6" t="n">
         <v>51</v>
@@ -1556,7 +1556,7 @@
         <v>1250</v>
       </c>
       <c r="AH6" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AI6" t="n">
         <v>7</v>
@@ -1574,10 +1574,10 @@
         <v>41</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP6" t="n">
         <v>41</v>
@@ -1586,7 +1586,7 @@
         <v>126</v>
       </c>
       <c r="AR6" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AS6" t="n">
         <v>351</v>
@@ -1595,7 +1595,7 @@
         <v>2.38</v>
       </c>
       <c r="AU6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV6" t="n">
         <v>81</v>
@@ -1604,7 +1604,7 @@
         <v>3.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY6" t="n">
         <v>26</v>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="H7" t="n">
         <v>3.25</v>
@@ -2427,10 +2427,10 @@
         <v>2.25</v>
       </c>
       <c r="U11" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="V11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W11" t="n">
         <v>9</v>
@@ -2567,16 +2567,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.73</v>
+        <v>1.65</v>
       </c>
       <c r="H12" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="J12" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K12" t="n">
         <v>2</v>
@@ -2585,10 +2585,10 @@
         <v>6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
@@ -2609,22 +2609,22 @@
         <v>2.38</v>
       </c>
       <c r="U12" t="n">
-        <v>2.25</v>
+        <v>2.37</v>
       </c>
       <c r="V12" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="W12" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y12" t="n">
         <v>9.5</v>
       </c>
       <c r="Z12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA12" t="n">
         <v>17</v>
@@ -2648,13 +2648,13 @@
         <v>351</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI12" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AJ12" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK12" t="n">
         <v>67</v>
@@ -2663,13 +2663,13 @@
         <v>51</v>
       </c>
       <c r="AM12" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP12" t="n">
         <v>26</v>
@@ -2687,13 +2687,13 @@
         <v>2.38</v>
       </c>
       <c r="AU12" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AV12" t="n">
         <v>81</v>
       </c>
       <c r="AW12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AX12" t="n">
         <v>34</v>
@@ -2702,10 +2702,10 @@
         <v>41</v>
       </c>
       <c r="AZ12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA12" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="BB12" t="n">
         <v>351</v>
@@ -2773,16 +2773,16 @@
         <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R13" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
@@ -2791,7 +2791,7 @@
         <v>2.75</v>
       </c>
       <c r="U13" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V13" t="n">
         <v>2</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -759,7 +759,7 @@
         <v>2.3</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L2" t="n">
         <v>6.5</v>
@@ -780,19 +780,19 @@
         <v>2.35</v>
       </c>
       <c r="R2" t="n">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="S2" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
@@ -813,7 +813,7 @@
         <v>41</v>
       </c>
       <c r="AC2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD2" t="n">
         <v>7</v>
@@ -822,7 +822,7 @@
         <v>23</v>
       </c>
       <c r="AF2" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AG2" t="n">
         <v>501</v>
@@ -864,7 +864,7 @@
         <v>251</v>
       </c>
       <c r="AT2" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU2" t="n">
         <v>10</v>
@@ -873,10 +873,10 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AY2" t="n">
         <v>41</v>
@@ -947,10 +947,10 @@
         <v>6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -959,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.61</v>
+        <v>1.65</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1123,10 +1123,10 @@
         <v>4.5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -1144,7 +1144,7 @@
         <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
         <v>1.53</v>
@@ -1520,7 +1520,7 @@
         <v>2.25</v>
       </c>
       <c r="V6" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W6" t="n">
         <v>11</v>
@@ -1702,7 +1702,7 @@
         <v>2.25</v>
       </c>
       <c r="V7" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W7" t="n">
         <v>5.5</v>
@@ -2403,16 +2403,16 @@
         <v>2.6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
         <v>6.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Q11" t="n">
         <v>2.6</v>
@@ -2567,13 +2567,13 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H12" t="n">
         <v>3.2</v>
       </c>
       <c r="I12" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="J12" t="n">
         <v>2.38</v>
@@ -2585,16 +2585,16 @@
         <v>6</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N12" t="n">
         <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P12" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q12" t="n">
         <v>2.4</v>
@@ -2609,10 +2609,10 @@
         <v>2.38</v>
       </c>
       <c r="U12" t="n">
-        <v>2.37</v>
+        <v>2.25</v>
       </c>
       <c r="V12" t="n">
-        <v>1.5</v>
+        <v>1.54</v>
       </c>
       <c r="W12" t="n">
         <v>5</v>
@@ -2702,7 +2702,7 @@
         <v>41</v>
       </c>
       <c r="AZ12" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="BA12" t="n">
         <v>201</v>
@@ -2767,13 +2767,13 @@
         <v>2.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
         <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
         <v>3.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -777,10 +777,10 @@
         <v>2.75</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R2" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="H3" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>5.25</v>
+        <v>4.75</v>
       </c>
       <c r="J3" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M3" t="n">
         <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -971,31 +971,31 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AD3" t="n">
         <v>7</v>
@@ -1004,19 +1004,19 @@
         <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
         <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
         <v>51</v>
@@ -1028,16 +1028,16 @@
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
@@ -1049,28 +1049,28 @@
         <v>2.5</v>
       </c>
       <c r="AU3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AY3" t="n">
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
       </c>
       <c r="BB3" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1111,7 +1111,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
@@ -1120,13 +1120,13 @@
         <v>2.1</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L4" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -1177,7 +1177,7 @@
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
@@ -1213,7 +1213,7 @@
         <v>5.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
         <v>34</v>
@@ -1240,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="AX4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
         <v>26</v>
@@ -1249,7 +1249,7 @@
         <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BB4" t="n">
         <v>251</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.55</v>
+        <v>1.51</v>
       </c>
       <c r="H5" t="n">
         <v>3.7</v>
@@ -1323,10 +1323,10 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1493,10 +1493,10 @@
         <v>2.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.44</v>
@@ -1505,10 +1505,10 @@
         <v>2.63</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R6" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S6" t="n">
         <v>1.53</v>
@@ -1851,7 +1851,7 @@
         <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="L8" t="n">
         <v>2.95</v>
@@ -1872,7 +1872,7 @@
         <v>1.57</v>
       </c>
       <c r="R8" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1881,10 +1881,10 @@
         <v>2.52</v>
       </c>
       <c r="U8" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V8" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="W8" t="n">
         <v>11.5</v>
@@ -1893,7 +1893,7 @@
         <v>15.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="Z8" t="n">
         <v>29</v>
@@ -1908,7 +1908,7 @@
         <v>14</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="AE8" t="n">
         <v>11.5</v>
@@ -1920,10 +1920,10 @@
         <v>250</v>
       </c>
       <c r="AH8" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ8" t="n">
         <v>9.5</v>
@@ -1935,13 +1935,13 @@
         <v>18</v>
       </c>
       <c r="AM8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AN8" t="n">
         <v>4.7</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AP8" t="n">
         <v>17.5</v>
@@ -1950,16 +1950,16 @@
         <v>50</v>
       </c>
       <c r="AR8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AS8" t="n">
         <v>175</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AV8" t="n">
         <v>45</v>
@@ -1971,13 +1971,13 @@
         <v>12.5</v>
       </c>
       <c r="AY8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AZ8" t="n">
         <v>50</v>
       </c>
       <c r="BA8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BB8" t="n">
         <v>175</v>
@@ -2397,22 +2397,22 @@
         <v>5.5</v>
       </c>
       <c r="K11" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L11" t="n">
         <v>2.6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N11" t="n">
         <v>6.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="P11" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Q11" t="n">
         <v>2.6</v>
@@ -2427,10 +2427,10 @@
         <v>2.25</v>
       </c>
       <c r="U11" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="V11" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W11" t="n">
         <v>9</v>
@@ -2567,52 +2567,52 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="H12" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I12" t="n">
-        <v>5.75</v>
+        <v>6.5</v>
       </c>
       <c r="J12" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L12" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N12" t="n">
+        <v>8</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R12" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="T12" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U12" t="n">
         <v>2.38</v>
       </c>
-      <c r="K12" t="n">
-        <v>2</v>
-      </c>
-      <c r="L12" t="n">
-        <v>6</v>
-      </c>
-      <c r="M12" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N12" t="n">
-        <v>7</v>
-      </c>
-      <c r="O12" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="R12" t="n">
+      <c r="V12" t="n">
         <v>1.53</v>
-      </c>
-      <c r="S12" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="T12" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="U12" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="V12" t="n">
-        <v>1.54</v>
       </c>
       <c r="W12" t="n">
         <v>5</v>
@@ -2621,10 +2621,10 @@
         <v>6.5</v>
       </c>
       <c r="Y12" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z12" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA12" t="n">
         <v>17</v>
@@ -2633,13 +2633,13 @@
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF12" t="n">
         <v>81</v>
@@ -2657,7 +2657,7 @@
         <v>21</v>
       </c>
       <c r="AK12" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AL12" t="n">
         <v>51</v>
@@ -2669,22 +2669,22 @@
         <v>3.4</v>
       </c>
       <c r="AO12" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP12" t="n">
         <v>26</v>
       </c>
       <c r="AQ12" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR12" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS12" t="n">
         <v>251</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU12" t="n">
         <v>10</v>
@@ -2693,7 +2693,7 @@
         <v>81</v>
       </c>
       <c r="AW12" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX12" t="n">
         <v>34</v>
@@ -2702,7 +2702,7 @@
         <v>41</v>
       </c>
       <c r="AZ12" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="BA12" t="n">
         <v>201</v>
@@ -2752,7 +2752,7 @@
         <v>3.5</v>
       </c>
       <c r="H13" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I13" t="n">
         <v>2.05</v>
@@ -2767,22 +2767,22 @@
         <v>2.75</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="N13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
         <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="R13" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
@@ -2791,7 +2791,7 @@
         <v>2.75</v>
       </c>
       <c r="U13" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="V13" t="n">
         <v>2</v>
@@ -2803,7 +2803,7 @@
         <v>19</v>
       </c>
       <c r="Y13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z13" t="n">
         <v>41</v>
@@ -2815,7 +2815,7 @@
         <v>34</v>
       </c>
       <c r="AC13" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD13" t="n">
         <v>6.5</v>
@@ -2857,13 +2857,13 @@
         <v>26</v>
       </c>
       <c r="AQ13" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AR13" t="n">
         <v>81</v>
       </c>
       <c r="AS13" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AT13" t="n">
         <v>2.75</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.18</v>
+        <v>2.32</v>
       </c>
       <c r="H14" t="n">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="I14" t="n">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="J14" t="n">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="K14" t="n">
         <v>2.07</v>
       </c>
       <c r="L14" t="n">
-        <v>3.7</v>
+        <v>3.45</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
@@ -2967,10 +2967,10 @@
         <v>1.7</v>
       </c>
       <c r="S14" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T14" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="U14" t="n">
         <v>1.85</v>
@@ -2979,19 +2979,19 @@
         <v>1.85</v>
       </c>
       <c r="W14" t="n">
-        <v>7</v>
+        <v>7.3</v>
       </c>
       <c r="X14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Y14" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Z14" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AA14" t="n">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="AB14" t="n">
         <v>32</v>
@@ -3012,43 +3012,43 @@
         <v>700</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AI14" t="n">
-        <v>15.5</v>
+        <v>13.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>11.25</v>
+        <v>10.75</v>
       </c>
       <c r="AK14" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AL14" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM14" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.05</v>
+        <v>4.2</v>
       </c>
       <c r="AO14" t="n">
-        <v>11.5</v>
+        <v>12.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ14" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AR14" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AS14" t="n">
         <v>300</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="AU14" t="n">
         <v>7.3</v>
@@ -3057,16 +3057,16 @@
         <v>70</v>
       </c>
       <c r="AW14" t="n">
-        <v>5</v>
+        <v>4.7</v>
       </c>
       <c r="AX14" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ14" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="BA14" t="n">
         <v>120</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -753,7 +753,7 @@
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="J2" t="n">
         <v>2.3</v>
@@ -765,22 +765,22 @@
         <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N2" t="n">
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P2" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="Q2" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R2" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S2" t="n">
         <v>1.5</v>
@@ -792,7 +792,7 @@
         <v>2.25</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H3" t="n">
         <v>3.6</v>
@@ -947,22 +947,22 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -974,7 +974,7 @@
         <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
@@ -1117,28 +1117,28 @@
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J4" t="n">
         <v>4.33</v>
       </c>
       <c r="K4" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
         <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N4" t="n">
         <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P4" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q4" t="n">
         <v>2.5</v>
@@ -1156,7 +1156,7 @@
         <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="W4" t="n">
         <v>8.5</v>
@@ -1293,7 +1293,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.51</v>
+        <v>1.55</v>
       </c>
       <c r="H5" t="n">
         <v>3.7</v>
@@ -1475,22 +1475,22 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H6" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
         <v>1.73</v>
       </c>
       <c r="J6" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K6" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1499,70 +1499,70 @@
         <v>8</v>
       </c>
       <c r="O6" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P6" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
       <c r="S6" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="T6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="V6" t="n">
-        <v>1.54</v>
+        <v>1.67</v>
       </c>
       <c r="W6" t="n">
         <v>11</v>
       </c>
       <c r="X6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AA6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AB6" t="n">
         <v>51</v>
       </c>
       <c r="AC6" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AD6" t="n">
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG6" t="n">
         <v>1250</v>
       </c>
       <c r="AH6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AI6" t="n">
         <v>7</v>
       </c>
       <c r="AJ6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK6" t="n">
         <v>13</v>
@@ -1571,52 +1571,52 @@
         <v>17</v>
       </c>
       <c r="AM6" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP6" t="n">
         <v>41</v>
       </c>
       <c r="AQ6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AR6" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AS6" t="n">
         <v>351</v>
       </c>
       <c r="AT6" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV6" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AX6" t="n">
         <v>9.5</v>
       </c>
       <c r="AY6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AZ6" t="n">
         <v>34</v>
       </c>
       <c r="BA6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BC6" t="n">
         <v>126</v>
@@ -1681,16 +1681,16 @@
         <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S7" t="n">
         <v>1.53</v>
@@ -1702,7 +1702,7 @@
         <v>2.25</v>
       </c>
       <c r="V7" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W7" t="n">
         <v>5.5</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="H8" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="I8" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
         <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>2.95</v>
+        <v>2.87</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1881,37 +1881,37 @@
         <v>2.52</v>
       </c>
       <c r="U8" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V8" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="W8" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="X8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="Z8" t="n">
         <v>29</v>
       </c>
       <c r="AA8" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF8" t="n">
         <v>40</v>
@@ -1920,37 +1920,37 @@
         <v>250</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AI8" t="n">
         <v>14.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AL8" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AM8" t="n">
         <v>22</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AQ8" t="n">
         <v>50</v>
       </c>
       <c r="AR8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AS8" t="n">
         <v>175</v>
@@ -1959,22 +1959,22 @@
         <v>2.9</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AV8" t="n">
         <v>45</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.6</v>
+        <v>4.55</v>
       </c>
       <c r="AX8" t="n">
-        <v>12.5</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
         <v>17</v>
       </c>
       <c r="AZ8" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="BA8" t="n">
         <v>65</v>
@@ -2066,7 +2066,7 @@
         <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="W9" t="n">
         <v>6</v>
@@ -2397,7 +2397,7 @@
         <v>5.5</v>
       </c>
       <c r="K11" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L11" t="n">
         <v>2.6</v>
@@ -2567,7 +2567,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H12" t="n">
         <v>3.3</v>
@@ -2585,10 +2585,10 @@
         <v>6.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
@@ -2633,7 +2633,7 @@
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD12" t="n">
         <v>7</v>
@@ -2648,7 +2648,7 @@
         <v>351</v>
       </c>
       <c r="AH12" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
         <v>29</v>
@@ -2779,10 +2779,10 @@
         <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="R13" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -765,16 +765,16 @@
         <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
         <v>7</v>
       </c>
       <c r="O2" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P2" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q2" t="n">
         <v>2.35</v>
@@ -849,7 +849,7 @@
         <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP2" t="n">
         <v>26</v>
@@ -873,7 +873,7 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AX2" t="n">
         <v>34</v>
@@ -947,13 +947,13 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
         <v>9</v>
       </c>
       <c r="O3" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P3" t="n">
         <v>3</v>
@@ -1111,34 +1111,34 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
         <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M4" t="n">
-        <v>1.07</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
         <v>2.5</v>
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z4" t="n">
         <v>41</v>
@@ -1195,7 +1195,7 @@
         <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ4" t="n">
         <v>9.5</v>
@@ -1213,7 +1213,7 @@
         <v>5.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP4" t="n">
         <v>34</v>
@@ -1240,7 +1240,7 @@
         <v>4</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY4" t="n">
         <v>26</v>
@@ -1323,10 +1323,10 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1335,10 +1335,10 @@
         <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="V5" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="W5" t="n">
         <v>4.5</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H6" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I6" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="J6" t="n">
         <v>5.5</v>
@@ -1490,13 +1490,13 @@
         <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1559,7 +1559,7 @@
         <v>5.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AJ6" t="n">
         <v>9</v>
@@ -1604,7 +1604,7 @@
         <v>3.6</v>
       </c>
       <c r="AX6" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AY6" t="n">
         <v>23</v>
@@ -1613,7 +1613,7 @@
         <v>34</v>
       </c>
       <c r="BA6" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="BB6" t="n">
         <v>201</v>
@@ -2039,10 +2039,10 @@
         <v>4.33</v>
       </c>
       <c r="M9" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N9" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -2051,10 +2051,10 @@
         <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
         <v>1.57</v>
@@ -2066,7 +2066,7 @@
         <v>2.1</v>
       </c>
       <c r="V9" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="W9" t="n">
         <v>6</v>
@@ -2403,16 +2403,16 @@
         <v>2.6</v>
       </c>
       <c r="M11" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N11" t="n">
         <v>6.5</v>
       </c>
       <c r="O11" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P11" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="Q11" t="n">
         <v>2.6</v>
@@ -2585,10 +2585,10 @@
         <v>6.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
@@ -2609,10 +2609,10 @@
         <v>2.5</v>
       </c>
       <c r="U12" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="V12" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="W12" t="n">
         <v>5</v>
@@ -2791,7 +2791,7 @@
         <v>2.75</v>
       </c>
       <c r="U13" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="V13" t="n">
         <v>2</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -792,7 +792,7 @@
         <v>2.25</v>
       </c>
       <c r="V2" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
@@ -929,19 +929,19 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H3" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I3" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
         <v>5.5</v>
@@ -959,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -974,13 +974,13 @@
         <v>2.1</v>
       </c>
       <c r="V3" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W3" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="X3" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
@@ -989,13 +989,13 @@
         <v>13</v>
       </c>
       <c r="AA3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AD3" t="n">
         <v>7</v>
@@ -1010,13 +1010,13 @@
         <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AI3" t="n">
         <v>23</v>
       </c>
       <c r="AJ3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK3" t="n">
         <v>51</v>
@@ -1028,7 +1028,7 @@
         <v>51</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO3" t="n">
         <v>9.5</v>
@@ -1129,10 +1129,10 @@
         <v>2.88</v>
       </c>
       <c r="M4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -1156,7 +1156,7 @@
         <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
         <v>8.5</v>
@@ -1335,10 +1335,10 @@
         <v>2.25</v>
       </c>
       <c r="U5" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="V5" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="W5" t="n">
         <v>4.5</v>
@@ -2585,10 +2585,10 @@
         <v>6.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
@@ -2597,10 +2597,10 @@
         <v>2.63</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R12" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S12" t="n">
         <v>1.5</v>
@@ -2609,10 +2609,10 @@
         <v>2.5</v>
       </c>
       <c r="U12" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="V12" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="W12" t="n">
         <v>5</v>
@@ -2749,28 +2749,28 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="H13" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I13" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="J13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K13" t="n">
         <v>2.2</v>
       </c>
       <c r="L13" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M13" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
         <v>1.29</v>
@@ -2791,10 +2791,10 @@
         <v>2.75</v>
       </c>
       <c r="U13" t="n">
-        <v>1.69</v>
+        <v>1.8</v>
       </c>
       <c r="V13" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="W13" t="n">
         <v>11</v>
@@ -2812,7 +2812,7 @@
         <v>29</v>
       </c>
       <c r="AB13" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC13" t="n">
         <v>10</v>
@@ -2821,28 +2821,28 @@
         <v>6.5</v>
       </c>
       <c r="AE13" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF13" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AG13" t="n">
         <v>201</v>
       </c>
       <c r="AH13" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AI13" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AJ13" t="n">
         <v>9</v>
       </c>
       <c r="AK13" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM13" t="n">
         <v>26</v>
@@ -2851,10 +2851,10 @@
         <v>5.5</v>
       </c>
       <c r="AO13" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AQ13" t="n">
         <v>67</v>
@@ -2884,7 +2884,7 @@
         <v>21</v>
       </c>
       <c r="AZ13" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="BA13" t="n">
         <v>51</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="H14" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I14" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="J14" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="K14" t="n">
         <v>2.07</v>
       </c>
       <c r="L14" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
@@ -2955,7 +2955,7 @@
         <v>6.6</v>
       </c>
       <c r="O14" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
         <v>2.87</v>
@@ -2967,31 +2967,31 @@
         <v>1.7</v>
       </c>
       <c r="S14" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T14" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="U14" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V14" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="W14" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="X14" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="Z14" t="n">
         <v>24</v>
       </c>
       <c r="AA14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AB14" t="n">
         <v>32</v>
@@ -3003,10 +3003,10 @@
         <v>6.2</v>
       </c>
       <c r="AE14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AG14" t="n">
         <v>700</v>
@@ -3018,10 +3018,10 @@
         <v>13.5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AK14" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AL14" t="n">
         <v>26</v>
@@ -3030,16 +3030,16 @@
         <v>37</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.2</v>
+        <v>4.25</v>
       </c>
       <c r="AO14" t="n">
         <v>12.5</v>
       </c>
       <c r="AP14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ14" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR14" t="n">
         <v>90</v>
@@ -3048,10 +3048,10 @@
         <v>300</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AV14" t="n">
         <v>70</v>
@@ -3063,13 +3063,13 @@
         <v>15.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ14" t="n">
         <v>75</v>
       </c>
       <c r="BA14" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="BB14" t="n">
         <v>350</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -792,7 +792,7 @@
         <v>2.25</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
@@ -938,7 +938,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
@@ -1123,10 +1123,10 @@
         <v>4.5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L4" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -1135,10 +1135,10 @@
         <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P4" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q4" t="n">
         <v>2.5</v>
@@ -1323,10 +1323,10 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R5" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="H6" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="J6" t="n">
         <v>5.5</v>
@@ -1490,7 +1490,7 @@
         <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
@@ -1508,7 +1508,7 @@
         <v>2.3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -1517,19 +1517,19 @@
         <v>2.5</v>
       </c>
       <c r="U6" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V6" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W6" t="n">
         <v>11</v>
       </c>
       <c r="X6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z6" t="n">
         <v>51</v>
@@ -1547,7 +1547,7 @@
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
         <v>67</v>
@@ -1559,7 +1559,7 @@
         <v>5.5</v>
       </c>
       <c r="AI6" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AJ6" t="n">
         <v>9</v>
@@ -1583,7 +1583,7 @@
         <v>41</v>
       </c>
       <c r="AQ6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR6" t="n">
         <v>151</v>
@@ -1595,16 +1595,16 @@
         <v>2.5</v>
       </c>
       <c r="AU6" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AV6" t="n">
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AY6" t="n">
         <v>23</v>
@@ -1613,7 +1613,7 @@
         <v>34</v>
       </c>
       <c r="BA6" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="BB6" t="n">
         <v>201</v>
@@ -1669,7 +1669,7 @@
         <v>2.6</v>
       </c>
       <c r="K7" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L7" t="n">
         <v>5.5</v>
@@ -1690,7 +1690,7 @@
         <v>2.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
         <v>1.53</v>
@@ -1774,7 +1774,7 @@
         <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="AU7" t="n">
         <v>9.5</v>
@@ -2054,7 +2054,7 @@
         <v>2.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S9" t="n">
         <v>1.57</v>
@@ -2585,10 +2585,10 @@
         <v>6.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O12" t="n">
         <v>1.44</v>
@@ -2597,10 +2597,10 @@
         <v>2.63</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="R12" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="S12" t="n">
         <v>1.5</v>
@@ -2779,10 +2779,10 @@
         <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="R13" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -792,7 +792,7 @@
         <v>2.25</v>
       </c>
       <c r="V2" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="W2" t="n">
         <v>5</v>
@@ -938,7 +938,7 @@
         <v>5</v>
       </c>
       <c r="J3" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="K3" t="n">
         <v>2.1</v>
@@ -947,10 +947,10 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -1123,10 +1123,10 @@
         <v>4.5</v>
       </c>
       <c r="K4" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -1323,10 +1323,10 @@
         <v>2.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R5" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S5" t="n">
         <v>1.57</v>
@@ -1475,7 +1475,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
@@ -1496,7 +1496,7 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1508,7 +1508,7 @@
         <v>2.3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -1526,10 +1526,10 @@
         <v>11</v>
       </c>
       <c r="X6" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="Y6" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Z6" t="n">
         <v>51</v>
@@ -1547,7 +1547,7 @@
         <v>6.5</v>
       </c>
       <c r="AE6" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF6" t="n">
         <v>67</v>
@@ -1583,7 +1583,7 @@
         <v>41</v>
       </c>
       <c r="AQ6" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AR6" t="n">
         <v>151</v>
@@ -1601,7 +1601,7 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AX6" t="n">
         <v>9.5</v>
@@ -1657,28 +1657,28 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="H7" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I7" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K7" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
         <v>5.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N7" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O7" t="n">
         <v>1.44</v>
@@ -1690,7 +1690,7 @@
         <v>2.4</v>
       </c>
       <c r="R7" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S7" t="n">
         <v>1.53</v>
@@ -1708,13 +1708,13 @@
         <v>5.5</v>
       </c>
       <c r="X7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Y7" t="n">
         <v>9.5</v>
       </c>
       <c r="Z7" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AA7" t="n">
         <v>19</v>
@@ -1738,10 +1738,10 @@
         <v>201</v>
       </c>
       <c r="AH7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AJ7" t="n">
         <v>17</v>
@@ -1765,7 +1765,7 @@
         <v>26</v>
       </c>
       <c r="AQ7" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AR7" t="n">
         <v>67</v>
@@ -1774,7 +1774,7 @@
         <v>251</v>
       </c>
       <c r="AT7" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="AU7" t="n">
         <v>9.5</v>
@@ -1783,7 +1783,7 @@
         <v>81</v>
       </c>
       <c r="AW7" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AX7" t="n">
         <v>29</v>
@@ -1792,7 +1792,7 @@
         <v>41</v>
       </c>
       <c r="AZ7" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA7" t="n">
         <v>151</v>
@@ -2054,7 +2054,7 @@
         <v>2.6</v>
       </c>
       <c r="R9" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S9" t="n">
         <v>1.57</v>
@@ -2576,7 +2576,7 @@
         <v>6.5</v>
       </c>
       <c r="J12" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K12" t="n">
         <v>2.05</v>
@@ -2585,16 +2585,16 @@
         <v>6.5</v>
       </c>
       <c r="M12" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O12" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P12" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="Q12" t="n">
         <v>2.35</v>
@@ -2609,13 +2609,13 @@
         <v>2.5</v>
       </c>
       <c r="U12" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="V12" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="W12" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X12" t="n">
         <v>6.5</v>
@@ -2633,13 +2633,13 @@
         <v>41</v>
       </c>
       <c r="AC12" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD12" t="n">
         <v>7</v>
       </c>
       <c r="AE12" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
         <v>81</v>
@@ -2657,7 +2657,7 @@
         <v>21</v>
       </c>
       <c r="AK12" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AL12" t="n">
         <v>51</v>
@@ -2672,7 +2672,7 @@
         <v>8.5</v>
       </c>
       <c r="AP12" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ12" t="n">
         <v>29</v>
@@ -2779,10 +2779,10 @@
         <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="R13" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA2" t="n">
         <v>17</v>
@@ -819,7 +819,7 @@
         <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
@@ -828,13 +828,13 @@
         <v>501</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
         <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
         <v>67</v>
@@ -843,22 +843,22 @@
         <v>51</v>
       </c>
       <c r="AM2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN2" t="n">
         <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AQ2" t="n">
         <v>29</v>
       </c>
       <c r="AR2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AS2" t="n">
         <v>251</v>
@@ -873,7 +873,7 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AX2" t="n">
         <v>34</v>
@@ -888,7 +888,7 @@
         <v>201</v>
       </c>
       <c r="BB2" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -947,10 +947,10 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K4" t="n">
         <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -1135,10 +1135,10 @@
         <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P4" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q4" t="n">
         <v>2.5</v>
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z4" t="n">
         <v>41</v>
@@ -1195,10 +1195,10 @@
         <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ4" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK4" t="n">
         <v>19</v>
@@ -1213,7 +1213,7 @@
         <v>5.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP4" t="n">
         <v>34</v>
@@ -1240,10 +1240,10 @@
         <v>4</v>
       </c>
       <c r="AX4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY4" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AZ4" t="n">
         <v>41</v>
@@ -1293,22 +1293,22 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H5" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="K5" t="n">
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
@@ -1347,7 +1347,7 @@
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z5" t="n">
         <v>10</v>
@@ -1374,7 +1374,7 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
         <v>34</v>
@@ -1395,10 +1395,10 @@
         <v>3.2</v>
       </c>
       <c r="AO5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AP5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AQ5" t="n">
         <v>29</v>
@@ -1505,10 +1505,10 @@
         <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R6" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -804,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA2" t="n">
         <v>17</v>
@@ -819,7 +819,7 @@
         <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
@@ -828,13 +828,13 @@
         <v>501</v>
       </c>
       <c r="AH2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI2" t="n">
         <v>29</v>
       </c>
       <c r="AJ2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AK2" t="n">
         <v>67</v>
@@ -849,7 +849,7 @@
         <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -888,7 +888,7 @@
         <v>201</v>
       </c>
       <c r="BB2" t="n">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -1111,22 +1111,22 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J4" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
         <v>1.95</v>
       </c>
       <c r="L4" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="M4" t="n">
         <v>1.1</v>
@@ -1165,19 +1165,19 @@
         <v>17</v>
       </c>
       <c r="Y4" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z4" t="n">
         <v>41</v>
       </c>
       <c r="AA4" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AB4" t="n">
         <v>41</v>
       </c>
       <c r="AC4" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD4" t="n">
         <v>6</v>
@@ -1195,10 +1195,10 @@
         <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AJ4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK4" t="n">
         <v>19</v>
@@ -1213,7 +1213,7 @@
         <v>5.5</v>
       </c>
       <c r="AO4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP4" t="n">
         <v>34</v>
@@ -1240,16 +1240,16 @@
         <v>4</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AZ4" t="n">
         <v>41</v>
       </c>
       <c r="BA4" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="BB4" t="n">
         <v>251</v>
@@ -1475,28 +1475,28 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="H6" t="n">
         <v>3.4</v>
       </c>
       <c r="I6" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="J6" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="K6" t="n">
         <v>2.05</v>
       </c>
       <c r="L6" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="M6" t="n">
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1505,10 +1505,10 @@
         <v>2.75</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="R6" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S6" t="n">
         <v>1.5</v>
@@ -1523,19 +1523,19 @@
         <v>1.62</v>
       </c>
       <c r="W6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X6" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Y6" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Z6" t="n">
         <v>51</v>
       </c>
       <c r="AA6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AB6" t="n">
         <v>51</v>
@@ -1544,13 +1544,13 @@
         <v>7.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF6" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG6" t="n">
         <v>1250</v>
@@ -1565,7 +1565,7 @@
         <v>9</v>
       </c>
       <c r="AK6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL6" t="n">
         <v>17</v>
@@ -1574,16 +1574,16 @@
         <v>34</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP6" t="n">
         <v>41</v>
       </c>
       <c r="AQ6" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AR6" t="n">
         <v>151</v>
@@ -1601,10 +1601,10 @@
         <v>67</v>
       </c>
       <c r="AW6" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AX6" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AY6" t="n">
         <v>23</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.57</v>
+        <v>2.5</v>
       </c>
       <c r="H8" t="n">
-        <v>3.55</v>
+        <v>3.65</v>
       </c>
       <c r="I8" t="n">
-        <v>2.4</v>
+        <v>2.42</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L8" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1884,22 +1884,22 @@
         <v>1.5</v>
       </c>
       <c r="V8" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="W8" t="n">
         <v>11.25</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="Y8" t="n">
         <v>9.75</v>
       </c>
       <c r="Z8" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AA8" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB8" t="n">
         <v>23</v>
@@ -1908,10 +1908,10 @@
         <v>14.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AF8" t="n">
         <v>40</v>
@@ -1926,7 +1926,7 @@
         <v>14.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK8" t="n">
         <v>26</v>
@@ -1938,10 +1938,10 @@
         <v>22</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.75</v>
+        <v>4.65</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AP8" t="n">
         <v>18</v>
@@ -1959,7 +1959,7 @@
         <v>2.9</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AV8" t="n">
         <v>45</v>
@@ -1977,7 +1977,7 @@
         <v>45</v>
       </c>
       <c r="BA8" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BB8" t="n">
         <v>175</v>
@@ -2767,13 +2767,13 @@
         <v>2.63</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N13" t="n">
         <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P13" t="n">
         <v>3.5</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J4" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="K4" t="n">
         <v>1.95</v>
@@ -1141,10 +1141,10 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
         <v>1.53</v>
@@ -1153,16 +1153,16 @@
         <v>2.38</v>
       </c>
       <c r="U4" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="V4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="W4" t="n">
         <v>8.5</v>
       </c>
       <c r="X4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="Y4" t="n">
         <v>15</v>
@@ -1174,13 +1174,13 @@
         <v>41</v>
       </c>
       <c r="AB4" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC4" t="n">
         <v>7</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
@@ -1192,7 +1192,7 @@
         <v>1250</v>
       </c>
       <c r="AH4" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AI4" t="n">
         <v>8.5</v>
@@ -1201,7 +1201,7 @@
         <v>9.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL4" t="n">
         <v>21</v>
@@ -1237,7 +1237,7 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="AX4" t="n">
         <v>12</v>
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H5" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I5" t="n">
         <v>7</v>
@@ -1329,16 +1329,16 @@
         <v>1.5</v>
       </c>
       <c r="S5" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="T5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="U5" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="V5" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="W5" t="n">
         <v>4.5</v>
@@ -1347,10 +1347,10 @@
         <v>5.5</v>
       </c>
       <c r="Y5" t="n">
+        <v>10</v>
+      </c>
+      <c r="Z5" t="n">
         <v>9.5</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>10</v>
       </c>
       <c r="AA5" t="n">
         <v>17</v>
@@ -1359,10 +1359,10 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AE5" t="n">
         <v>29</v>
@@ -1374,7 +1374,7 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI5" t="n">
         <v>34</v>
@@ -1401,7 +1401,7 @@
         <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AR5" t="n">
         <v>67</v>
@@ -1410,7 +1410,7 @@
         <v>301</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="AU5" t="n">
         <v>11</v>
@@ -1419,7 +1419,7 @@
         <v>101</v>
       </c>
       <c r="AW5" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AX5" t="n">
         <v>41</v>
@@ -1428,7 +1428,7 @@
         <v>51</v>
       </c>
       <c r="AZ5" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="BA5" t="n">
         <v>301</v>
@@ -1496,7 +1496,7 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1523,7 +1523,7 @@
         <v>1.62</v>
       </c>
       <c r="W6" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="X6" t="n">
         <v>26</v>
@@ -1535,7 +1535,7 @@
         <v>51</v>
       </c>
       <c r="AA6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AB6" t="n">
         <v>51</v>
@@ -1544,7 +1544,7 @@
         <v>7.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
@@ -1565,7 +1565,7 @@
         <v>9</v>
       </c>
       <c r="AK6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL6" t="n">
         <v>17</v>
@@ -1574,10 +1574,10 @@
         <v>34</v>
       </c>
       <c r="AN6" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AO6" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP6" t="n">
         <v>41</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H8" t="n">
-        <v>3.65</v>
+        <v>3.55</v>
       </c>
       <c r="I8" t="n">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="K8" t="n">
-        <v>2.27</v>
+        <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1869,10 +1869,10 @@
         <v>3.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R8" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1881,25 +1881,25 @@
         <v>2.52</v>
       </c>
       <c r="U8" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V8" t="n">
-        <v>2.25</v>
+        <v>2.32</v>
       </c>
       <c r="W8" t="n">
         <v>11.25</v>
       </c>
       <c r="X8" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
         <v>9.75</v>
       </c>
       <c r="Z8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AA8" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AB8" t="n">
         <v>23</v>
@@ -1908,10 +1908,10 @@
         <v>14.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AE8" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AF8" t="n">
         <v>40</v>
@@ -1920,7 +1920,7 @@
         <v>250</v>
       </c>
       <c r="AH8" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AI8" t="n">
         <v>14.5</v>
@@ -1932,16 +1932,16 @@
         <v>26</v>
       </c>
       <c r="AL8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AM8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.65</v>
+        <v>4.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
         <v>18</v>
@@ -1959,7 +1959,7 @@
         <v>2.9</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV8" t="n">
         <v>45</v>
@@ -1977,7 +1977,7 @@
         <v>45</v>
       </c>
       <c r="BA8" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BB8" t="n">
         <v>175</v>
@@ -2021,28 +2021,28 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H9" t="n">
         <v>3</v>
       </c>
       <c r="I9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="J9" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K9" t="n">
         <v>1.95</v>
       </c>
       <c r="L9" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M9" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N9" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O9" t="n">
         <v>1.5</v>
@@ -2051,10 +2051,10 @@
         <v>2.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R9" t="n">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S9" t="n">
         <v>1.57</v>
@@ -2072,13 +2072,13 @@
         <v>6</v>
       </c>
       <c r="X9" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Y9" t="n">
         <v>10</v>
       </c>
       <c r="Z9" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA9" t="n">
         <v>21</v>
@@ -2102,22 +2102,22 @@
         <v>301</v>
       </c>
       <c r="AH9" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AI9" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ9" t="n">
-        <v>13</v>
       </c>
       <c r="AK9" t="n">
         <v>41</v>
       </c>
       <c r="AL9" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM9" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN9" t="n">
         <v>4</v>
@@ -2147,19 +2147,19 @@
         <v>67</v>
       </c>
       <c r="AW9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AX9" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AY9" t="n">
         <v>34</v>
       </c>
       <c r="AZ9" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="BA9" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BB9" t="n">
         <v>351</v>
@@ -2767,7 +2767,7 @@
         <v>2.63</v>
       </c>
       <c r="M13" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
         <v>11</v>
@@ -2776,13 +2776,13 @@
         <v>1.25</v>
       </c>
       <c r="P13" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R13" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -765,10 +765,10 @@
         <v>6.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -929,7 +929,7 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H3" t="n">
         <v>3.7</v>
@@ -947,10 +947,10 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -1004,7 +1004,7 @@
         <v>21</v>
       </c>
       <c r="AF3" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AG3" t="n">
         <v>501</v>
@@ -1031,13 +1031,13 @@
         <v>3.5</v>
       </c>
       <c r="AO3" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
@@ -1064,7 +1064,7 @@
         <v>41</v>
       </c>
       <c r="AZ3" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="BA3" t="n">
         <v>151</v>
@@ -1111,16 +1111,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J4" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K4" t="n">
         <v>1.95</v>
@@ -1129,10 +1129,10 @@
         <v>2.88</v>
       </c>
       <c r="M4" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O4" t="n">
         <v>1.44</v>
@@ -1141,10 +1141,10 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R4" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S4" t="n">
         <v>1.53</v>
@@ -1153,13 +1153,13 @@
         <v>2.38</v>
       </c>
       <c r="U4" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="V4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="W4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="X4" t="n">
         <v>19</v>
@@ -1177,10 +1177,10 @@
         <v>51</v>
       </c>
       <c r="AC4" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD4" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AE4" t="n">
         <v>19</v>
@@ -1192,7 +1192,7 @@
         <v>1250</v>
       </c>
       <c r="AH4" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AI4" t="n">
         <v>8.5</v>
@@ -1201,7 +1201,7 @@
         <v>9.5</v>
       </c>
       <c r="AK4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>21</v>
@@ -1237,7 +1237,7 @@
         <v>67</v>
       </c>
       <c r="AW4" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="AX4" t="n">
         <v>12</v>
@@ -1496,7 +1496,7 @@
         <v>1.08</v>
       </c>
       <c r="N6" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.4</v>
@@ -1523,7 +1523,7 @@
         <v>1.62</v>
       </c>
       <c r="W6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="X6" t="n">
         <v>26</v>
@@ -1535,7 +1535,7 @@
         <v>51</v>
       </c>
       <c r="AA6" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AB6" t="n">
         <v>51</v>
@@ -1544,7 +1544,7 @@
         <v>7.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE6" t="n">
         <v>21</v>
@@ -1565,7 +1565,7 @@
         <v>9</v>
       </c>
       <c r="AK6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL6" t="n">
         <v>17</v>
@@ -1574,10 +1574,10 @@
         <v>34</v>
       </c>
       <c r="AN6" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AO6" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP6" t="n">
         <v>41</v>
@@ -1657,7 +1657,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="H7" t="n">
         <v>3.3</v>
@@ -1675,10 +1675,10 @@
         <v>5.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O7" t="n">
         <v>1.44</v>
@@ -1705,7 +1705,7 @@
         <v>1.57</v>
       </c>
       <c r="W7" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="X7" t="n">
         <v>7</v>
@@ -1723,7 +1723,7 @@
         <v>41</v>
       </c>
       <c r="AC7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AD7" t="n">
         <v>6.5</v>
@@ -1756,7 +1756,7 @@
         <v>51</v>
       </c>
       <c r="AN7" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AO7" t="n">
         <v>10</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="H8" t="n">
         <v>3.55</v>
       </c>
       <c r="I8" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="J8" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="K8" t="n">
         <v>2.25</v>
       </c>
       <c r="L8" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1887,16 +1887,16 @@
         <v>2.32</v>
       </c>
       <c r="W8" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y8" t="n">
         <v>9.75</v>
       </c>
       <c r="Z8" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AA8" t="n">
         <v>19</v>
@@ -1911,7 +1911,7 @@
         <v>7.3</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF8" t="n">
         <v>40</v>
@@ -1920,13 +1920,13 @@
         <v>250</v>
       </c>
       <c r="AH8" t="n">
-        <v>11.5</v>
+        <v>11.25</v>
       </c>
       <c r="AI8" t="n">
         <v>14.5</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="AK8" t="n">
         <v>26</v>
@@ -1938,16 +1938,16 @@
         <v>21</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.75</v>
+        <v>4.8</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AP8" t="n">
         <v>18</v>
       </c>
       <c r="AQ8" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AR8" t="n">
         <v>70</v>
@@ -1968,16 +1968,16 @@
         <v>4.55</v>
       </c>
       <c r="AX8" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AY8" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AZ8" t="n">
         <v>45</v>
       </c>
       <c r="BA8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB8" t="n">
         <v>175</v>
@@ -2773,16 +2773,16 @@
         <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P13" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R13" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S13" t="n">
         <v>1.4</v>
@@ -2931,22 +2931,22 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H14" t="n">
         <v>3.15</v>
       </c>
       <c r="I14" t="n">
-        <v>2.77</v>
+        <v>2.67</v>
       </c>
       <c r="J14" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="L14" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="M14" t="n">
         <v>1.08</v>
@@ -2967,31 +2967,31 @@
         <v>1.7</v>
       </c>
       <c r="S14" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="T14" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="U14" t="n">
         <v>1.83</v>
       </c>
       <c r="V14" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="W14" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="X14" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="Y14" t="n">
         <v>9.5</v>
       </c>
       <c r="Z14" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AA14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AB14" t="n">
         <v>32</v>
@@ -3000,7 +3000,7 @@
         <v>6.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AE14" t="n">
         <v>15</v>
@@ -3009,46 +3009,46 @@
         <v>75</v>
       </c>
       <c r="AG14" t="n">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AH14" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AI14" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>24</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AO14" t="n">
         <v>13.5</v>
       </c>
-      <c r="AJ14" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>32</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN14" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>12.5</v>
-      </c>
       <c r="AP14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AQ14" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AR14" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AS14" t="n">
         <v>300</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.65</v>
+        <v>2.62</v>
       </c>
       <c r="AU14" t="n">
         <v>7.2</v>
@@ -3057,16 +3057,16 @@
         <v>70</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="AX14" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AY14" t="n">
         <v>24</v>
       </c>
       <c r="AZ14" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BA14" t="n">
         <v>110</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -947,10 +947,10 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="H4" t="n">
         <v>3.1</v>
       </c>
       <c r="I4" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J4" t="n">
         <v>4.5</v>
@@ -1141,10 +1141,10 @@
         <v>2.63</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R4" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S4" t="n">
         <v>1.53</v>
@@ -1162,7 +1162,7 @@
         <v>9</v>
       </c>
       <c r="X4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="Y4" t="n">
         <v>15</v>
@@ -1171,10 +1171,10 @@
         <v>41</v>
       </c>
       <c r="AA4" t="n">
+        <v>34</v>
+      </c>
+      <c r="AB4" t="n">
         <v>41</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>51</v>
       </c>
       <c r="AC4" t="n">
         <v>6.5</v>
@@ -1195,7 +1195,7 @@
         <v>6</v>
       </c>
       <c r="AI4" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AJ4" t="n">
         <v>9.5</v>
@@ -1839,22 +1839,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H8" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I8" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="J8" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L8" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1869,10 +1869,10 @@
         <v>3.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="R8" t="n">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1881,13 +1881,13 @@
         <v>2.52</v>
       </c>
       <c r="U8" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V8" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="W8" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="X8" t="n">
         <v>15.5</v>
@@ -1896,13 +1896,13 @@
         <v>9.75</v>
       </c>
       <c r="Z8" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AA8" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AC8" t="n">
         <v>14.5</v>
@@ -1911,7 +1911,7 @@
         <v>7.3</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AF8" t="n">
         <v>40</v>
@@ -1920,34 +1920,34 @@
         <v>250</v>
       </c>
       <c r="AH8" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AI8" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK8" t="n">
         <v>26</v>
       </c>
       <c r="AL8" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AM8" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="AO8" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AP8" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AR8" t="n">
         <v>70</v>
@@ -1959,7 +1959,7 @@
         <v>2.9</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AV8" t="n">
         <v>45</v>
@@ -1968,16 +1968,16 @@
         <v>4.55</v>
       </c>
       <c r="AX8" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
-        <v>16.5</v>
+        <v>17.5</v>
       </c>
       <c r="AZ8" t="n">
         <v>45</v>
       </c>
       <c r="BA8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB8" t="n">
         <v>175</v>
@@ -2931,19 +2931,19 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.45</v>
+        <v>2.47</v>
       </c>
       <c r="H14" t="n">
         <v>3.15</v>
       </c>
       <c r="I14" t="n">
-        <v>2.67</v>
+        <v>2.65</v>
       </c>
       <c r="J14" t="n">
         <v>3.1</v>
       </c>
       <c r="K14" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="L14" t="n">
         <v>3.3</v>
@@ -2958,7 +2958,7 @@
         <v>1.36</v>
       </c>
       <c r="P14" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="Q14" t="n">
         <v>2.07</v>
@@ -2967,22 +2967,22 @@
         <v>1.7</v>
       </c>
       <c r="S14" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="T14" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="U14" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="V14" t="n">
         <v>1.88</v>
       </c>
       <c r="W14" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="X14" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="Y14" t="n">
         <v>9.5</v>
@@ -3003,7 +3003,7 @@
         <v>6.1</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AF14" t="n">
         <v>75</v>
@@ -3018,7 +3018,7 @@
         <v>13</v>
       </c>
       <c r="AJ14" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AK14" t="n">
         <v>30</v>
@@ -3030,7 +3030,7 @@
         <v>35</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.35</v>
+        <v>4.4</v>
       </c>
       <c r="AO14" t="n">
         <v>13.5</v>
@@ -3048,22 +3048,22 @@
         <v>300</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.62</v>
+        <v>2.65</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="AV14" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AW14" t="n">
         <v>4.6</v>
       </c>
       <c r="AX14" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ14" t="n">
         <v>70</v>
@@ -3072,7 +3072,7 @@
         <v>110</v>
       </c>
       <c r="BB14" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -819,7 +819,7 @@
         <v>7</v>
       </c>
       <c r="AE2" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AF2" t="n">
         <v>81</v>
@@ -849,16 +849,16 @@
         <v>3.4</v>
       </c>
       <c r="AO2" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR2" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AS2" t="n">
         <v>251</v>
@@ -867,7 +867,7 @@
         <v>2.5</v>
       </c>
       <c r="AU2" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AV2" t="n">
         <v>81</v>
@@ -888,7 +888,7 @@
         <v>201</v>
       </c>
       <c r="BB2" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -947,10 +947,10 @@
         <v>5.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -959,10 +959,10 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R3" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S3" t="n">
         <v>1.5</v>
@@ -1657,22 +1657,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="H7" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J7" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K7" t="n">
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M7" t="n">
         <v>1.1</v>
@@ -1711,13 +1711,13 @@
         <v>7</v>
       </c>
       <c r="Y7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z7" t="n">
         <v>13</v>
       </c>
       <c r="AA7" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB7" t="n">
         <v>41</v>
@@ -1726,7 +1726,7 @@
         <v>7</v>
       </c>
       <c r="AD7" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AE7" t="n">
         <v>21</v>
@@ -1744,13 +1744,13 @@
         <v>23</v>
       </c>
       <c r="AJ7" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK7" t="n">
         <v>51</v>
       </c>
       <c r="AL7" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AM7" t="n">
         <v>51</v>
@@ -1759,7 +1759,7 @@
         <v>3.5</v>
       </c>
       <c r="AO7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP7" t="n">
         <v>26</v>
@@ -1786,7 +1786,7 @@
         <v>6.5</v>
       </c>
       <c r="AX7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AY7" t="n">
         <v>41</v>
@@ -1842,19 +1842,19 @@
         <v>2.55</v>
       </c>
       <c r="H8" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="I8" t="n">
-        <v>2.4</v>
+        <v>2.37</v>
       </c>
       <c r="J8" t="n">
         <v>3</v>
       </c>
       <c r="K8" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L8" t="n">
-        <v>2.9</v>
+        <v>2.85</v>
       </c>
       <c r="M8" t="n">
         <v>1.03</v>
@@ -1869,10 +1869,10 @@
         <v>3.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="R8" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1887,10 +1887,10 @@
         <v>2.27</v>
       </c>
       <c r="W8" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="X8" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="Y8" t="n">
         <v>9.75</v>
@@ -1902,13 +1902,13 @@
         <v>18.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AC8" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="AE8" t="n">
         <v>11.75</v>
@@ -1920,7 +1920,7 @@
         <v>250</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AI8" t="n">
         <v>14</v>
@@ -1932,16 +1932,16 @@
         <v>26</v>
       </c>
       <c r="AL8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AM8" t="n">
         <v>22</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AO8" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AP8" t="n">
         <v>17.5</v>
@@ -1956,31 +1956,31 @@
         <v>175</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AV8" t="n">
         <v>45</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.55</v>
+        <v>4.6</v>
       </c>
       <c r="AX8" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AY8" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AZ8" t="n">
         <v>45</v>
       </c>
       <c r="BA8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB8" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="BC8" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -747,28 +747,28 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.62</v>
+        <v>1.7</v>
       </c>
       <c r="H2" t="n">
         <v>3.5</v>
       </c>
       <c r="I2" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="J2" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="K2" t="n">
         <v>2.05</v>
       </c>
       <c r="L2" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O2" t="n">
         <v>1.44</v>
@@ -789,34 +789,34 @@
         <v>2.5</v>
       </c>
       <c r="U2" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="V2" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="W2" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="X2" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y2" t="n">
         <v>9</v>
       </c>
       <c r="Z2" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AA2" t="n">
         <v>17</v>
       </c>
       <c r="AB2" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC2" t="n">
         <v>7</v>
       </c>
       <c r="AD2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AE2" t="n">
         <v>21</v>
@@ -828,16 +828,16 @@
         <v>501</v>
       </c>
       <c r="AH2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AI2" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AJ2" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK2" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AL2" t="n">
         <v>51</v>
@@ -846,10 +846,10 @@
         <v>51</v>
       </c>
       <c r="AN2" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AO2" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AP2" t="n">
         <v>23</v>
@@ -861,7 +861,7 @@
         <v>67</v>
       </c>
       <c r="AS2" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AT2" t="n">
         <v>2.5</v>
@@ -873,7 +873,7 @@
         <v>81</v>
       </c>
       <c r="AW2" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AX2" t="n">
         <v>34</v>
@@ -882,13 +882,13 @@
         <v>41</v>
       </c>
       <c r="AZ2" t="n">
+        <v>126</v>
+      </c>
+      <c r="BA2" t="n">
         <v>151</v>
       </c>
-      <c r="BA2" t="n">
-        <v>201</v>
-      </c>
       <c r="BB2" t="n">
-        <v>451</v>
+        <v>401</v>
       </c>
       <c r="BC2" t="n">
         <v>126</v>
@@ -929,28 +929,28 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="I3" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="J3" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L3" t="n">
         <v>5</v>
       </c>
-      <c r="J3" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K3" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>5.5</v>
-      </c>
       <c r="M3" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O3" t="n">
         <v>1.4</v>
@@ -959,7 +959,7 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="R3" t="n">
         <v>1.62</v>
@@ -971,25 +971,25 @@
         <v>2.5</v>
       </c>
       <c r="U3" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="V3" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="W3" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Y3" t="n">
         <v>9</v>
       </c>
       <c r="Z3" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB3" t="n">
         <v>34</v>
@@ -1001,22 +1001,22 @@
         <v>7</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AG3" t="n">
         <v>501</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AJ3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK3" t="n">
         <v>51</v>
@@ -1025,19 +1025,19 @@
         <v>41</v>
       </c>
       <c r="AM3" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
       </c>
       <c r="AQ3" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AR3" t="n">
         <v>51</v>
@@ -1058,19 +1058,19 @@
         <v>6.5</v>
       </c>
       <c r="AX3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AY3" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AZ3" t="n">
+        <v>101</v>
+      </c>
+      <c r="BA3" t="n">
         <v>126</v>
       </c>
-      <c r="BA3" t="n">
-        <v>151</v>
-      </c>
       <c r="BB3" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="BC3" t="n">
         <v>126</v>
@@ -1293,13 +1293,13 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="H5" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J5" t="n">
         <v>2.2</v>
@@ -1308,7 +1308,7 @@
         <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="M5" t="n">
         <v>1.1</v>
@@ -1335,22 +1335,22 @@
         <v>2.38</v>
       </c>
       <c r="U5" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="V5" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="W5" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="X5" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y5" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z5" t="n">
         <v>10</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>9.5</v>
       </c>
       <c r="AA5" t="n">
         <v>17</v>
@@ -1359,10 +1359,10 @@
         <v>41</v>
       </c>
       <c r="AC5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AD5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>29</v>
@@ -1374,7 +1374,7 @@
         <v>201</v>
       </c>
       <c r="AH5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AI5" t="n">
         <v>34</v>
@@ -1401,7 +1401,7 @@
         <v>26</v>
       </c>
       <c r="AQ5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
         <v>67</v>
@@ -1419,7 +1419,7 @@
         <v>101</v>
       </c>
       <c r="AW5" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AX5" t="n">
         <v>41</v>
@@ -1428,7 +1428,7 @@
         <v>51</v>
       </c>
       <c r="AZ5" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="BA5" t="n">
         <v>301</v>
@@ -1839,28 +1839,28 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="H8" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="I8" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="J8" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="K8" t="n">
-        <v>2.3</v>
+        <v>2.32</v>
       </c>
       <c r="L8" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="M8" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>13.4</v>
       </c>
       <c r="O8" t="n">
         <v>1.19</v>
@@ -1869,10 +1869,10 @@
         <v>3.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="R8" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1881,13 +1881,13 @@
         <v>2.52</v>
       </c>
       <c r="U8" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V8" t="n">
-        <v>2.27</v>
+        <v>2.32</v>
       </c>
       <c r="W8" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="X8" t="n">
         <v>15</v>
@@ -1896,19 +1896,19 @@
         <v>9.75</v>
       </c>
       <c r="Z8" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="AA8" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AB8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.4</v>
+        <v>7.6</v>
       </c>
       <c r="AE8" t="n">
         <v>11.75</v>
@@ -1917,58 +1917,58 @@
         <v>40</v>
       </c>
       <c r="AG8" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AH8" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AI8" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AJ8" t="n">
         <v>9.5</v>
       </c>
       <c r="AK8" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AL8" t="n">
-        <v>17</v>
+        <v>17.5</v>
       </c>
       <c r="AM8" t="n">
         <v>22</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.75</v>
+        <v>4.7</v>
       </c>
       <c r="AO8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>17.5</v>
+        <v>16.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR8" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AS8" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AT8" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="AU8" t="n">
         <v>6.4</v>
       </c>
       <c r="AV8" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.6</v>
+        <v>4.7</v>
       </c>
       <c r="AX8" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
         <v>16.5</v>
@@ -1977,7 +1977,7 @@
         <v>45</v>
       </c>
       <c r="BA8" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BB8" t="n">
         <v>150</v>
@@ -2931,148 +2931,148 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.47</v>
+        <v>2.27</v>
       </c>
       <c r="H14" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="I14" t="n">
-        <v>2.65</v>
+        <v>2.85</v>
       </c>
       <c r="J14" t="n">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="K14" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="L14" t="n">
-        <v>3.3</v>
+        <v>3.45</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P14" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="R14" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="S14" t="n">
         <v>1.42</v>
       </c>
       <c r="T14" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="U14" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="V14" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="W14" t="n">
-        <v>7.7</v>
+        <v>7.4</v>
       </c>
       <c r="X14" t="n">
-        <v>12</v>
+        <v>10.75</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.5</v>
+        <v>9.25</v>
       </c>
       <c r="Z14" t="n">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="AA14" t="n">
-        <v>22</v>
+        <v>19.5</v>
       </c>
       <c r="AB14" t="n">
         <v>32</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.6</v>
+        <v>6.8</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="AE14" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AF14" t="n">
         <v>75</v>
       </c>
       <c r="AG14" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AH14" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AI14" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AJ14" t="n">
-        <v>10</v>
+        <v>10.75</v>
       </c>
       <c r="AK14" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AL14" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AM14" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.4</v>
+        <v>4.15</v>
       </c>
       <c r="AO14" t="n">
-        <v>13.5</v>
+        <v>12</v>
       </c>
       <c r="AP14" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ14" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AR14" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AS14" t="n">
         <v>300</v>
       </c>
       <c r="AT14" t="n">
-        <v>2.65</v>
+        <v>2.67</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="AV14" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.6</v>
+        <v>4.75</v>
       </c>
       <c r="AX14" t="n">
-        <v>14.5</v>
+        <v>16</v>
       </c>
       <c r="AY14" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ14" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BA14" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="BB14" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="BC14" t="n">
         <v>51</v>

--- a/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2024-10-16.xlsx
@@ -932,16 +932,16 @@
         <v>1.8</v>
       </c>
       <c r="H3" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I3" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J3" t="n">
         <v>2.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L3" t="n">
         <v>5</v>
@@ -959,22 +959,22 @@
         <v>3</v>
       </c>
       <c r="Q3" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R3" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S3" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="T3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="U3" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="W3" t="n">
         <v>6</v>
@@ -995,7 +995,7 @@
         <v>34</v>
       </c>
       <c r="AC3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AD3" t="n">
         <v>7</v>
@@ -1007,7 +1007,7 @@
         <v>67</v>
       </c>
       <c r="AG3" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AH3" t="n">
         <v>10</v>
@@ -1031,7 +1031,7 @@
         <v>3.6</v>
       </c>
       <c r="AO3" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AP3" t="n">
         <v>23</v>
@@ -1046,16 +1046,16 @@
         <v>201</v>
       </c>
       <c r="AT3" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="AU3" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AV3" t="n">
         <v>67</v>
       </c>
       <c r="AW3" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AX3" t="n">
         <v>26</v>
@@ -1293,28 +1293,28 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H5" t="n">
         <v>3.8</v>
       </c>
       <c r="I5" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J5" t="n">
         <v>2.2</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L5" t="n">
         <v>7.5</v>
       </c>
       <c r="M5" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N5" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O5" t="n">
         <v>1.5</v>
@@ -1344,7 +1344,7 @@
         <v>4.75</v>
       </c>
       <c r="X5" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y5" t="n">
         <v>9.5</v>
@@ -1681,16 +1681,16 @@
         <v>7</v>
       </c>
       <c r="O7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="R7" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S7" t="n">
         <v>1.53</v>
@@ -1842,19 +1842,19 @@
         <v>2.45</v>
       </c>
       <c r="H8" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I8" t="n">
         <v>2.42</v>
       </c>
       <c r="J8" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="K8" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L8" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="M8" t="n">
         <v>1.02</v>
@@ -1869,10 +1869,10 @@
         <v>3.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R8" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="S8" t="n">
         <v>1.4</v>
@@ -1881,22 +1881,22 @@
         <v>2.52</v>
       </c>
       <c r="U8" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="V8" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="W8" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="Y8" t="n">
         <v>9.75</v>
       </c>
       <c r="Z8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AA8" t="n">
         <v>17.5</v>
@@ -1905,46 +1905,46 @@
         <v>21</v>
       </c>
       <c r="AC8" t="n">
-        <v>15.5</v>
+        <v>16.5</v>
       </c>
       <c r="AD8" t="n">
-        <v>7.6</v>
+        <v>7.8</v>
       </c>
       <c r="AE8" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AF8" t="n">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AG8" t="n">
         <v>200</v>
       </c>
       <c r="AH8" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AI8" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AJ8" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AK8" t="n">
         <v>27</v>
       </c>
       <c r="AL8" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AM8" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN8" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AO8" t="n">
         <v>12</v>
       </c>
       <c r="AP8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AQ8" t="n">
         <v>45</v>
@@ -1956,34 +1956,34 @@
         <v>150</v>
       </c>
       <c r="AT8" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="AU8" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AV8" t="n">
         <v>40</v>
       </c>
       <c r="AW8" t="n">
-        <v>4.7</v>
+        <v>4.75</v>
       </c>
       <c r="AX8" t="n">
         <v>12</v>
       </c>
       <c r="AY8" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AZ8" t="n">
         <v>45</v>
       </c>
       <c r="BA8" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BB8" t="n">
         <v>150</v>
       </c>
       <c r="BC8" t="n">
-        <v>51</v>
+        <v>500</v>
       </c>
       <c r="BD8" t="n">
         <v>51</v>
@@ -2931,34 +2931,34 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>2.27</v>
+        <v>2.15</v>
       </c>
       <c r="H14" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I14" t="n">
-        <v>2.85</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
-        <v>2.9</v>
+        <v>2.77</v>
       </c>
       <c r="K14" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="L14" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="M14" t="n">
         <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="O14" t="n">
         <v>1.35</v>
       </c>
       <c r="P14" t="n">
-        <v>2.92</v>
+        <v>2.95</v>
       </c>
       <c r="Q14" t="n">
         <v>2.05</v>
@@ -2973,73 +2973,73 @@
         <v>2.67</v>
       </c>
       <c r="U14" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="V14" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="W14" t="n">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="X14" t="n">
-        <v>10.75</v>
+        <v>10</v>
       </c>
       <c r="Y14" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="Z14" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AA14" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AB14" t="n">
         <v>32</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="AD14" t="n">
-        <v>6.3</v>
+        <v>6.5</v>
       </c>
       <c r="AE14" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AF14" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AG14" t="n">
         <v>700</v>
       </c>
       <c r="AH14" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="AI14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
-        <v>10.75</v>
+        <v>11</v>
       </c>
       <c r="AK14" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AL14" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="AM14" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN14" t="n">
-        <v>4.15</v>
+        <v>4.05</v>
       </c>
       <c r="AO14" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AP14" t="n">
         <v>21</v>
       </c>
       <c r="AQ14" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AR14" t="n">
         <v>90</v>
@@ -3051,22 +3051,22 @@
         <v>2.67</v>
       </c>
       <c r="AU14" t="n">
-        <v>7.3</v>
+        <v>7.5</v>
       </c>
       <c r="AV14" t="n">
         <v>70</v>
       </c>
       <c r="AW14" t="n">
-        <v>4.75</v>
+        <v>4.9</v>
       </c>
       <c r="AX14" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AY14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ14" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BA14" t="n">
         <v>120</v>
